--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E8" s="3">
         <v>34400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>32000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>8300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7500</v>
       </c>
       <c r="F9" s="3">
         <v>7500</v>
       </c>
       <c r="G9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H9" s="3">
         <v>7000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E10" s="3">
         <v>26100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,22 +1032,25 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="E15" s="3">
         <v>7600</v>
       </c>
       <c r="F15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G15" s="3">
         <v>7500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7600</v>
       </c>
       <c r="H15" s="3">
         <v>7600</v>
@@ -1037,10 +1059,10 @@
         <v>7600</v>
       </c>
       <c r="J15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K15" s="3">
         <v>7500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7600</v>
       </c>
       <c r="L15" s="3">
         <v>7600</v>
@@ -1049,16 +1071,19 @@
         <v>7600</v>
       </c>
       <c r="N15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O15" s="3">
         <v>7500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7600</v>
       </c>
       <c r="P15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1083,41 +1109,44 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
         <v>17000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,41 +1156,44 @@
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>14400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1189,41 +1222,44 @@
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1233,41 +1269,44 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>22400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>19700</v>
       </c>
       <c r="H21" s="3">
         <v>19700</v>
       </c>
       <c r="I21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="J21" s="3">
         <v>20400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>15100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,41 +1316,44 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>13000</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>13000</v>
       </c>
       <c r="H22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I22" s="3">
         <v>12700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>11800</v>
       </c>
       <c r="L22" s="3">
         <v>11800</v>
       </c>
       <c r="M22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="N22" s="3">
         <v>12700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1321,41 +1363,44 @@
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1453,41 +1504,44 @@
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1497,41 +1551,44 @@
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1717,41 +1786,44 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1761,41 +1833,44 @@
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1849,90 +1927,96 @@
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E41" s="3">
         <v>17600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>59500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>61400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2144,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
       </c>
       <c r="P43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>700</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>302000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E46" s="3">
         <v>322100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>118200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>114800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>113000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>65700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>74700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>77700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>60200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>916700</v>
+      </c>
+      <c r="E48" s="3">
         <v>924700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>932300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>939900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>947400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>955000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>962700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>970200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>977300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>984900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>992600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1007600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3100</v>
+        <v>54300</v>
       </c>
       <c r="E52" s="3">
         <v>3100</v>
       </c>
       <c r="F52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>989200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1249900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1053700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1058000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1063400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1021900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1032200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1041200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1054300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1068100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1080500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1095900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1106700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +2748,73 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>5500</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>45500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>252000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>251800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2700</v>
       </c>
       <c r="I58" s="3">
         <v>2700</v>
@@ -2693,154 +2826,166 @@
         <v>2700</v>
       </c>
       <c r="L58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M58" s="3">
         <v>2600</v>
       </c>
       <c r="N58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O58" s="3">
         <v>3500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>31700</v>
       </c>
       <c r="P58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E59" s="3">
         <v>21300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>19800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E60" s="3">
         <v>21300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>271500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>272700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>607700</v>
+      </c>
+      <c r="E61" s="3">
         <v>914400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>712000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>460400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>461100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>710500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>710900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>711300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>711700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>712100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>712300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>710900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>684700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2854,37 +2999,40 @@
         <v>3200</v>
       </c>
       <c r="G62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H62" s="3">
         <v>3100</v>
       </c>
       <c r="I62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1000</v>
       </c>
       <c r="O62" s="3">
         <v>1000</v>
       </c>
       <c r="P62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>675500</v>
+      </c>
+      <c r="E66" s="3">
         <v>938800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>735000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>735100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>737000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>736900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>736000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>734700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>736000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>738700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>738400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>731900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>738800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,10 +3347,10 @@
         <v>126700</v>
       </c>
       <c r="G70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="H70" s="3">
         <v>127100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>73200</v>
       </c>
       <c r="I70" s="3">
         <v>73200</v>
@@ -3192,7 +3359,7 @@
         <v>73200</v>
       </c>
       <c r="K70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="L70" s="3">
         <v>73300</v>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E76" s="3">
         <v>184400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>192000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>196200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>199400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>211800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>223000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>233200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>245100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>256100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>268900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>290700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>294500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3705,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3577,41 +3771,44 @@
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,22 +3825,23 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="E83" s="3">
         <v>7600</v>
       </c>
       <c r="F83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G83" s="3">
         <v>7500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7600</v>
       </c>
       <c r="H83" s="3">
         <v>7600</v>
@@ -3652,10 +3850,10 @@
         <v>7600</v>
       </c>
       <c r="J83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K83" s="3">
         <v>7500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7600</v>
       </c>
       <c r="L83" s="3">
         <v>7600</v>
@@ -3664,16 +3862,19 @@
         <v>7600</v>
       </c>
       <c r="N83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O83" s="3">
         <v>7500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7600</v>
       </c>
       <c r="P83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E89" s="3">
         <v>13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,14 +4188,14 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -3989,17 +4209,20 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4107,11 +4336,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4128,10 +4357,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,13 +4390,13 @@
         <v>-2900</v>
       </c>
       <c r="E96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-10600</v>
       </c>
       <c r="H96" s="3">
         <v>-10600</v>
@@ -4172,7 +4405,7 @@
         <v>-10600</v>
       </c>
       <c r="J96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="K96" s="3">
         <v>-16700</v>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,43 +4566,46 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-264900</v>
+      </c>
+      <c r="E100" s="3">
         <v>191200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>41400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-11800</v>
       </c>
       <c r="I100" s="3">
         <v>-11800</v>
       </c>
       <c r="J100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-17900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12000</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-24800</v>
       </c>
       <c r="O100" s="3">
         <v>-24800</v>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-251400</v>
+      </c>
+      <c r="E102" s="3">
         <v>204700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E8" s="3">
         <v>34300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>32000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7500</v>
       </c>
       <c r="G9" s="3">
         <v>7500</v>
       </c>
       <c r="H9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I9" s="3">
         <v>7000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E10" s="3">
         <v>26500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>34000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,25 +1055,28 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E15" s="3">
         <v>8000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7600</v>
       </c>
       <c r="F15" s="3">
         <v>7600</v>
       </c>
       <c r="G15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H15" s="3">
         <v>7500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7600</v>
       </c>
       <c r="I15" s="3">
         <v>7600</v>
@@ -1062,10 +1085,10 @@
         <v>7600</v>
       </c>
       <c r="K15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L15" s="3">
         <v>7500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7600</v>
       </c>
       <c r="M15" s="3">
         <v>7600</v>
@@ -1074,16 +1097,19 @@
         <v>7600</v>
       </c>
       <c r="O15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P15" s="3">
         <v>7500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7600</v>
       </c>
       <c r="Q15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,41 +1139,44 @@
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
         <v>17000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1159,41 +1189,44 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1225,41 +1259,44 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1272,41 +1309,44 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>22400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>19700</v>
       </c>
       <c r="I21" s="3">
         <v>19700</v>
       </c>
       <c r="J21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K21" s="3">
         <v>20400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>32000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1319,41 +1359,44 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>13000</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>13000</v>
       </c>
       <c r="I22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J22" s="3">
         <v>12700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>11800</v>
       </c>
       <c r="M22" s="3">
         <v>11800</v>
       </c>
       <c r="N22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O22" s="3">
         <v>12700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1366,41 +1409,44 @@
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
         <v>1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1507,41 +1559,44 @@
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1554,41 +1609,44 @@
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1789,41 +1859,44 @@
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1836,41 +1909,44 @@
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1930,93 +2009,99 @@
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E41" s="3">
         <v>16200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1000</v>
       </c>
       <c r="Q43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>302000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E46" s="3">
         <v>18200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>322100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>118200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>113000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>65700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>74700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>77700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>83700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>60200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>908800</v>
+      </c>
+      <c r="E48" s="3">
         <v>916700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>924700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>932300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>939900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>947400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>955000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>962700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>970200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>977300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>984900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>992600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1007600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>54300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3100</v>
       </c>
       <c r="F52" s="3">
         <v>3100</v>
       </c>
       <c r="G52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>986800</v>
+      </c>
+      <c r="E54" s="3">
         <v>989200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1249900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1053700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1058000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1063400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1021900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1032200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1041200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1054300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1068100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1080500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1095900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1106700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,75 +2879,79 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>45500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>252000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>251800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2700</v>
       </c>
       <c r="J58" s="3">
         <v>2700</v>
@@ -2829,163 +2963,175 @@
         <v>2700</v>
       </c>
       <c r="M58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="N58" s="3">
         <v>2600</v>
       </c>
       <c r="O58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P58" s="3">
         <v>3500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>31700</v>
       </c>
       <c r="Q58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E60" s="3">
         <v>64600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>271500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>272700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>641800</v>
+      </c>
+      <c r="E61" s="3">
         <v>607700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>914400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>712000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>460400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>461100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>710500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>710900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>711300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>711700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>712100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>712300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>710900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>684700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3002,37 +3148,40 @@
         <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I62" s="3">
         <v>3100</v>
       </c>
       <c r="J62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
       <c r="Q62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E66" s="3">
         <v>675500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>938800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>735000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>735100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>737000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>736900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>736000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>734700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>736000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>738700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>738400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>731900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>738800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3350,10 +3518,10 @@
         <v>126700</v>
       </c>
       <c r="H70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="I70" s="3">
         <v>127100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>73200</v>
       </c>
       <c r="J70" s="3">
         <v>73200</v>
@@ -3362,7 +3530,7 @@
         <v>73200</v>
       </c>
       <c r="L70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="M70" s="3">
         <v>73300</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E76" s="3">
         <v>187000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>184400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>192000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>196200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>199400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>211800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>223000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>233200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>245100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>256100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>268900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>290700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>294500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3774,41 +3969,44 @@
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,25 +4024,26 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>8000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7600</v>
       </c>
       <c r="F83" s="3">
         <v>7600</v>
       </c>
       <c r="G83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H83" s="3">
         <v>7500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7600</v>
       </c>
       <c r="I83" s="3">
         <v>7600</v>
@@ -3853,10 +4052,10 @@
         <v>7600</v>
       </c>
       <c r="K83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L83" s="3">
         <v>7500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7600</v>
       </c>
       <c r="M83" s="3">
         <v>7600</v>
@@ -3865,16 +4064,19 @@
         <v>7600</v>
       </c>
       <c r="O83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P83" s="3">
         <v>7500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7600</v>
       </c>
       <c r="Q83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E89" s="3">
         <v>13500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4191,14 +4412,14 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -4212,17 +4433,20 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4339,11 +4569,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4360,10 +4590,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4393,13 +4627,13 @@
         <v>-2900</v>
       </c>
       <c r="F96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-10600</v>
       </c>
       <c r="I96" s="3">
         <v>-10600</v>
@@ -4408,7 +4642,7 @@
         <v>-10600</v>
       </c>
       <c r="K96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="L96" s="3">
         <v>-16700</v>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,46 +4812,49 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-264900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>191200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>41400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-11800</v>
       </c>
       <c r="J100" s="3">
         <v>-11800</v>
       </c>
       <c r="K100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="L100" s="3">
         <v>-17900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-24800</v>
       </c>
       <c r="P100" s="3">
         <v>-24800</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-251400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>204700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>50400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E8" s="3">
         <v>34500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>31300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>32000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7500</v>
       </c>
       <c r="H9" s="3">
         <v>7500</v>
       </c>
       <c r="I9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J9" s="3">
         <v>7000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E10" s="3">
         <v>26000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>34000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,19 +1090,19 @@
         <v>7900</v>
       </c>
       <c r="E15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F15" s="3">
         <v>8000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7600</v>
       </c>
       <c r="G15" s="3">
         <v>7600</v>
       </c>
       <c r="H15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I15" s="3">
         <v>7500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7600</v>
       </c>
       <c r="J15" s="3">
         <v>7600</v>
@@ -1088,10 +1111,10 @@
         <v>7600</v>
       </c>
       <c r="L15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M15" s="3">
         <v>7500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7600</v>
       </c>
       <c r="N15" s="3">
         <v>7600</v>
@@ -1100,16 +1123,19 @@
         <v>7600</v>
       </c>
       <c r="P15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7600</v>
       </c>
       <c r="R15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1142,41 +1169,44 @@
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
         <v>17000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,41 +1222,44 @@
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>14400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,41 +1296,44 @@
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1312,41 +1349,44 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>22400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>19700</v>
       </c>
       <c r="J21" s="3">
         <v>19700</v>
       </c>
       <c r="K21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="L21" s="3">
         <v>20400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,41 +1402,44 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>13000</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <v>13000</v>
       </c>
       <c r="J22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K22" s="3">
         <v>12700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>11800</v>
       </c>
       <c r="N22" s="3">
         <v>11800</v>
       </c>
       <c r="O22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="P22" s="3">
         <v>12700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1412,41 +1455,44 @@
       <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
         <v>1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1562,41 +1614,44 @@
       <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1612,41 +1667,44 @@
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1862,41 +1932,44 @@
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1912,41 +1985,44 @@
       <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2012,96 +2091,102 @@
       <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E41" s="3">
         <v>70100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>112900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>112300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>109900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1000</v>
       </c>
       <c r="R43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>302000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E46" s="3">
         <v>75100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>322100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>118200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>114800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>113000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>63500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>74700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>77700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>83700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>60200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900900</v>
+      </c>
+      <c r="E48" s="3">
         <v>908800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>916700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>924700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>932300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>939900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>947400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>955000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>962700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>970200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>977300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>984900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>992600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1007600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3100</v>
       </c>
       <c r="G52" s="3">
         <v>3100</v>
       </c>
       <c r="H52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>973100</v>
+      </c>
+      <c r="E54" s="3">
         <v>986800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>989200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1249900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1053700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1058000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1063400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1021900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1032200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1041200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1054300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1068100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1080500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1095900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1106700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,81 +3010,85 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>45500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>252000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>251800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2700</v>
       </c>
       <c r="K58" s="3">
         <v>2700</v>
@@ -2966,172 +3100,184 @@
         <v>2700</v>
       </c>
       <c r="N58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="O58" s="3">
         <v>2600</v>
       </c>
       <c r="P58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>31700</v>
       </c>
       <c r="R58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E59" s="3">
         <v>24000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E60" s="3">
         <v>24000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>271500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>272700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>630400</v>
+      </c>
+      <c r="E61" s="3">
         <v>641800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>607700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>914400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>712000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>460400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>461100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>710500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>710900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>711300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>711700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>712100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>712300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>710900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>684700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3151,37 +3297,40 @@
         <v>3200</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J62" s="3">
         <v>3100</v>
       </c>
       <c r="K62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1000</v>
       </c>
       <c r="Q62" s="3">
         <v>1000</v>
       </c>
       <c r="R62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>651800</v>
+      </c>
+      <c r="E66" s="3">
         <v>669000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>675500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>938800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>735000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>735100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>737000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>736900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>736000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>734700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>736000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>738700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>738400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>731900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>738800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,10 +3689,10 @@
         <v>126700</v>
       </c>
       <c r="I70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="J70" s="3">
         <v>127100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>73200</v>
       </c>
       <c r="K70" s="3">
         <v>73200</v>
@@ -3533,7 +3701,7 @@
         <v>73200</v>
       </c>
       <c r="M70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="N70" s="3">
         <v>73300</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E76" s="3">
         <v>191100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>187000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>184400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>192000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>196200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>199400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>211800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>223000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>233200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>245100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>256100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>268900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>290700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>294500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3972,41 +4167,44 @@
       <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,19 +4233,19 @@
         <v>7900</v>
       </c>
       <c r="E83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F83" s="3">
         <v>8000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7600</v>
       </c>
       <c r="G83" s="3">
         <v>7600</v>
       </c>
       <c r="H83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I83" s="3">
         <v>7500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7600</v>
       </c>
       <c r="J83" s="3">
         <v>7600</v>
@@ -4055,10 +4254,10 @@
         <v>7600</v>
       </c>
       <c r="L83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M83" s="3">
         <v>7500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7600</v>
       </c>
       <c r="N83" s="3">
         <v>7600</v>
@@ -4067,16 +4266,19 @@
         <v>7600</v>
       </c>
       <c r="P83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7600</v>
       </c>
       <c r="R83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>18700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>23300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4415,14 +4636,14 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -4436,17 +4657,20 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4572,11 +4802,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4593,10 +4823,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4630,13 +4864,13 @@
         <v>-2900</v>
       </c>
       <c r="G96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-10600</v>
       </c>
       <c r="J96" s="3">
         <v>-10600</v>
@@ -4645,7 +4879,7 @@
         <v>-10600</v>
       </c>
       <c r="L96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="M96" s="3">
         <v>-16700</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,40 +5070,40 @@
         <v>-14900</v>
       </c>
       <c r="E100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-264900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>191200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>41400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-11800</v>
       </c>
       <c r="K100" s="3">
         <v>-11800</v>
       </c>
       <c r="L100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M100" s="3">
         <v>-17900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>12000</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-24800</v>
       </c>
       <c r="Q100" s="3">
         <v>-24800</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-251400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>204700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>34300</v>
+      </c>
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>34500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>34300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>34400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>30800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>31400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>31000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>31300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>30900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>33900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>34500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>33500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>32000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>39100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>41400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F9" s="3">
         <v>7600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>7500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>7400</v>
       </c>
       <c r="S9" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U9" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F10" s="3">
         <v>26300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>26500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>23300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>23900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>24000</v>
       </c>
       <c r="K10" s="3">
         <v>23900</v>
       </c>
       <c r="L10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>23900</v>
+      </c>
+      <c r="N10" s="3">
         <v>24400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>26900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>27100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>26600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>23200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>31600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>34000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1120,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
         <v>7900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7500</v>
       </c>
       <c r="J15" s="3">
         <v>7600</v>
       </c>
       <c r="K15" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="L15" s="3">
         <v>7600</v>
       </c>
       <c r="M15" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="N15" s="3">
         <v>7600</v>
       </c>
       <c r="O15" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="P15" s="3">
         <v>7600</v>
       </c>
       <c r="Q15" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="R15" s="3">
         <v>7600</v>
       </c>
       <c r="S15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1203,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1172,41 +1225,47 @@
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>17000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>19300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>17100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>17000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>23200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>17200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>17100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,41 +1284,47 @@
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>17500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>15900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>21900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>24300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,41 +1366,47 @@
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,41 +1425,47 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>22400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>19700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>19700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>20400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>24300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>25100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>23400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>15100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>29200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>32000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,41 +1484,47 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>12700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>11800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>8800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>8900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1458,41 +1543,47 @@
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>12900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1694,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1617,41 +1720,47 @@
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>12900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>15500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1670,41 +1779,47 @@
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1935,41 +2074,47 @@
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1988,41 +2133,47 @@
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>7900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2225,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2094,99 +2251,111 @@
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>7900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F41" s="3">
         <v>63300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>70100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>112900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>112300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>109900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>59500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>57800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>61400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>67500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>70500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>74300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>50900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>57600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2512,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2397,156 +2588,174 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3900</v>
       </c>
       <c r="M44" s="3">
         <v>1800</v>
       </c>
       <c r="N44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>302000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>32400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>79900</v>
+      </c>
+      <c r="F46" s="3">
         <v>69300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>75100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>18200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>322100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>118200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>114800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>63500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>65700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>66100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>70400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>74700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>77700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>83700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>60200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2807,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>884900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>892900</v>
+      </c>
+      <c r="F48" s="3">
         <v>900900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>908800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>916700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>924700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>932300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>939900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>947400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>955000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>962700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>970200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>977300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>984900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>992600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1007600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>54300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3300</v>
       </c>
       <c r="J52" s="3">
         <v>3100</v>
       </c>
       <c r="K52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>10300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>12100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>38900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>975500</v>
+      </c>
+      <c r="F54" s="3">
         <v>973100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>986800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>989200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1249900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1053700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1058000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1063400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1021900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1032200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1041200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1054300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1068100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1080500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1095900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1106700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3022,50 +3283,56 @@
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,26 +3342,26 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>45500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>252000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>251800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2700</v>
       </c>
       <c r="M58" s="3">
         <v>2700</v>
@@ -3103,181 +3370,205 @@
         <v>2700</v>
       </c>
       <c r="O58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>31700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>21300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>19800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>12400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>18300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F60" s="3">
         <v>18100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>24000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>64600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>271500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>272700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>23400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>21900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>25400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>25000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>20000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>53100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>607700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>619100</v>
+      </c>
+      <c r="F61" s="3">
         <v>630400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>641800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>607700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>914400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>712000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>460400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>461100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>710500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>710900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>711300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>711700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>712100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>712300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>710900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>684700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3300,37 +3591,43 @@
         <v>3200</v>
       </c>
       <c r="J62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>629300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>646800</v>
+      </c>
+      <c r="F66" s="3">
         <v>651800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>669000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>675500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>938800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>735000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>735100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>737000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>736900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>736000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>734700</v>
       </c>
       <c r="N66" s="3">
         <v>736000</v>
       </c>
       <c r="O66" s="3">
+        <v>734700</v>
+      </c>
+      <c r="P66" s="3">
+        <v>736000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>738700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>738400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>731900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>738800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3692,22 +4027,22 @@
         <v>126700</v>
       </c>
       <c r="J70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="L70" s="3">
         <v>127100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>73200</v>
-      </c>
-      <c r="L70" s="3">
-        <v>73200</v>
       </c>
       <c r="M70" s="3">
         <v>73200</v>
       </c>
       <c r="N70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="O70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="P70" s="3">
         <v>73300</v>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>73300</v>
+      </c>
+      <c r="U70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4115,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>209800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F76" s="3">
         <v>194600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>191100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>187000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>184400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>192000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>196200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>199400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>211800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>223000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>233200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>245100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>256100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>268900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>290700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>294500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4469,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4170,41 +4559,47 @@
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>7900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7500</v>
       </c>
       <c r="J83" s="3">
         <v>7600</v>
       </c>
       <c r="K83" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="L83" s="3">
         <v>7600</v>
       </c>
       <c r="M83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="N83" s="3">
         <v>7600</v>
       </c>
       <c r="O83" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="P83" s="3">
         <v>7600</v>
       </c>
       <c r="Q83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="R83" s="3">
         <v>7600</v>
       </c>
       <c r="S83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F89" s="3">
         <v>8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>18700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>11400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>18200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>23300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,40 +5055,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -4660,17 +5101,23 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4805,14 +5264,14 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4826,10 +5285,16 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4867,25 +5334,25 @@
         <v>-2900</v>
       </c>
       <c r="H96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-10600</v>
       </c>
       <c r="L96" s="3">
         <v>-10600</v>
       </c>
       <c r="M96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="N96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="O96" s="3">
         <v>-16700</v>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-264900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>191200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>41400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-18100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-18600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>12000</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-24800</v>
       </c>
       <c r="S100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-251400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>204700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>50400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>23400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -2406,7 +2406,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="E41" s="3">
         <v>76000</v>
@@ -2524,7 +2524,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
@@ -2582,8 +2582,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>800</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -2642,7 +2642,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>2500</v>
@@ -2701,7 +2701,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>78500</v>
+        <v>27100</v>
       </c>
       <c r="E46" s="3">
         <v>79900</v>
@@ -3055,7 +3055,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2500</v>
+        <v>53800</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
@@ -3277,8 +3277,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>4400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -3336,8 +3336,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>45700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3396,7 +3396,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18500</v>
+        <v>12800</v>
       </c>
       <c r="E59" s="3">
         <v>24500</v>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18500</v>
+        <v>62800</v>
       </c>
       <c r="E60" s="3">
         <v>24500</v>
@@ -3514,7 +3514,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>607700</v>
+        <v>562000</v>
       </c>
       <c r="E61" s="3">
         <v>619100</v>
@@ -3573,7 +3573,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="E62" s="3">
         <v>3200</v>
@@ -5322,16 +5322,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-2900</v>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E8" s="3">
         <v>34400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>31400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>31000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>31300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>32000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7500</v>
       </c>
       <c r="K9" s="3">
         <v>7500</v>
       </c>
       <c r="L9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E10" s="3">
         <v>26600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>23300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,37 +1146,40 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E15" s="3">
         <v>8000</v>
       </c>
       <c r="F15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="3">
         <v>7900</v>
       </c>
       <c r="H15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I15" s="3">
         <v>8000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>7600</v>
       </c>
       <c r="J15" s="3">
         <v>7600</v>
       </c>
       <c r="K15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L15" s="3">
         <v>7500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7600</v>
       </c>
       <c r="M15" s="3">
         <v>7600</v>
@@ -1165,10 +1188,10 @@
         <v>7600</v>
       </c>
       <c r="O15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P15" s="3">
         <v>7500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7600</v>
       </c>
       <c r="Q15" s="3">
         <v>7600</v>
@@ -1177,16 +1200,19 @@
         <v>7600</v>
       </c>
       <c r="S15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T15" s="3">
         <v>7500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>7600</v>
       </c>
       <c r="U15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1231,41 +1258,44 @@
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>17000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1290,41 +1320,44 @@
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>14400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1372,41 +1406,44 @@
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1431,41 +1468,44 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>22400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>19700</v>
       </c>
       <c r="M21" s="3">
         <v>19700</v>
       </c>
       <c r="N21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="O21" s="3">
         <v>20400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>15100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1490,41 +1530,44 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>13000</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>13000</v>
       </c>
       <c r="M22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N22" s="3">
         <v>12700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>11800</v>
       </c>
       <c r="Q22" s="3">
         <v>11800</v>
       </c>
       <c r="R22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="S22" s="3">
         <v>12700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1549,41 +1592,44 @@
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1726,41 +1778,44 @@
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1785,41 +1840,44 @@
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2080,41 +2150,44 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2139,41 +2212,44 @@
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2257,105 +2336,111 @@
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E41" s="3">
         <v>25000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>112900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>70500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1000</v>
       </c>
       <c r="U43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>302000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E46" s="3">
         <v>27100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>79900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>69300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>322100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>118200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>114800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>65700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>66100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>70400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>74700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>77700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>83700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>60200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>877100</v>
+      </c>
+      <c r="E48" s="3">
         <v>884900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>892900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>908800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>916700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>924700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>932300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>939900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>947400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>955000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>962700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>970200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>977300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>984900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>992600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1007600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>53800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3100</v>
       </c>
       <c r="J52" s="3">
         <v>3100</v>
       </c>
       <c r="K52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>971200</v>
+      </c>
+      <c r="E54" s="3">
         <v>965800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>975500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>973100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>986800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>989200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1249900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1053700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1058000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1063400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1021900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1032200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1041200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1054300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1068100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1080500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1095900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1106700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,99 +3402,103 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>45700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>45500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>252000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>251800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2700</v>
       </c>
       <c r="N58" s="3">
         <v>2700</v>
@@ -3376,207 +3510,219 @@
         <v>2700</v>
       </c>
       <c r="Q58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="R58" s="3">
         <v>2600</v>
       </c>
       <c r="S58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T58" s="3">
         <v>3500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>31700</v>
       </c>
       <c r="U58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E59" s="3">
         <v>12800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E60" s="3">
         <v>62800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>271500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>272700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>53100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>596300</v>
+      </c>
+      <c r="E61" s="3">
         <v>562000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>619100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>630400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>641800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>607700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>914400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>712000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>460400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>461100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>710500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>710900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>711300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>711700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>712100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>712300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>710900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>684700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3200</v>
       </c>
       <c r="F62" s="3">
         <v>3200</v>
@@ -3597,37 +3743,40 @@
         <v>3200</v>
       </c>
       <c r="L62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="M62" s="3">
         <v>3100</v>
       </c>
       <c r="N62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1000</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
       <c r="U62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>620400</v>
+      </c>
+      <c r="E66" s="3">
         <v>629300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>646800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>651800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>669000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>675500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>938800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>735000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>735100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>737000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>736900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>736000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>734700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>736000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>738700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>738400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>731900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>738800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4033,10 +4201,10 @@
         <v>126700</v>
       </c>
       <c r="L70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="M70" s="3">
         <v>127100</v>
-      </c>
-      <c r="M70" s="3">
-        <v>73200</v>
       </c>
       <c r="N70" s="3">
         <v>73200</v>
@@ -4045,7 +4213,7 @@
         <v>73200</v>
       </c>
       <c r="P70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="Q70" s="3">
         <v>73300</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E76" s="3">
         <v>209800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>202000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>194600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>191100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>187000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>184400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>192000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>196200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>199400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>211800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>223000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>233200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>245100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>256100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>268900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>290700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>294500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4565,41 +4760,44 @@
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,37 +4819,38 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E83" s="3">
         <v>8000</v>
       </c>
       <c r="F83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G83" s="3">
         <v>7900</v>
       </c>
       <c r="H83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I83" s="3">
         <v>8000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7600</v>
       </c>
       <c r="J83" s="3">
         <v>7600</v>
       </c>
       <c r="K83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L83" s="3">
         <v>7500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7600</v>
       </c>
       <c r="M83" s="3">
         <v>7600</v>
@@ -4660,10 +4859,10 @@
         <v>7600</v>
       </c>
       <c r="O83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P83" s="3">
         <v>7500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7600</v>
       </c>
       <c r="Q83" s="3">
         <v>7600</v>
@@ -4672,16 +4871,19 @@
         <v>7600</v>
       </c>
       <c r="S83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T83" s="3">
         <v>7500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7600</v>
       </c>
       <c r="U83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E89" s="3">
         <v>14200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5083,17 +5304,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -5107,17 +5328,20 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5270,11 +5500,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5291,10 +5521,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5334,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-2900</v>
       </c>
       <c r="J96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-10600</v>
       </c>
       <c r="M96" s="3">
         <v>-10600</v>
@@ -5355,7 +5589,7 @@
         <v>-10600</v>
       </c>
       <c r="O96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="P96" s="3">
         <v>-16700</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,58 +5795,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-14900</v>
       </c>
       <c r="G100" s="3">
         <v>-14900</v>
       </c>
       <c r="H100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-264900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>191200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>41400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-11800</v>
       </c>
       <c r="N100" s="3">
         <v>-11800</v>
       </c>
       <c r="O100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="P100" s="3">
         <v>-17900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12000</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-24800</v>
       </c>
       <c r="T100" s="3">
         <v>-24800</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-251400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>204700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F8" s="3">
         <v>33400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>34400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>34300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>33900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>34500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>34300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>34400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>30800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>31400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>31000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>31300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>30900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>33900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>34500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>33500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>32000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>39100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>41400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F9" s="3">
         <v>7600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>7000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>7400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>7500</v>
-      </c>
-      <c r="U9" s="3">
-        <v>7400</v>
       </c>
       <c r="V9" s="3">
         <v>7500</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="X9" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F10" s="3">
         <v>25800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>26400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>26000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>26500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>26100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>23300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>24000</v>
       </c>
       <c r="N10" s="3">
         <v>23900</v>
       </c>
       <c r="O10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>23900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>24400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>26900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>27100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>26600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>23200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>31600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>34000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,70 +1189,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F15" s="3">
         <v>7800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>7900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7500</v>
       </c>
       <c r="M15" s="3">
         <v>7600</v>
       </c>
       <c r="N15" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="O15" s="3">
         <v>7600</v>
       </c>
       <c r="P15" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="Q15" s="3">
         <v>7600</v>
       </c>
       <c r="R15" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="S15" s="3">
         <v>7600</v>
       </c>
       <c r="T15" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="U15" s="3">
         <v>7600</v>
       </c>
       <c r="V15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="W15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,41 +1315,47 @@
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>17000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>19300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>19400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>18300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>17100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>17000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>17600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>23200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>17200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>17100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1323,41 +1383,47 @@
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>12600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>16800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>17500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>15900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>8800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>21900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1409,41 +1477,47 @@
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1471,41 +1545,47 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>22400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>19700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>19700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>20400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>24300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>25100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>23400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>15100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>29200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>32000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1533,41 +1613,47 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>12500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>11800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>11800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>12700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>8800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>8900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1595,41 +1681,47 @@
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>12900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1781,41 +1885,47 @@
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>12900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>15500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1843,41 +1953,47 @@
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>10000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>7900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2153,41 +2293,47 @@
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2215,41 +2361,47 @@
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>10000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>7900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2339,108 +2497,120 @@
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>10000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>7900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F41" s="3">
         <v>84100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>25000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>76000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>63300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>70100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>112900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>112300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>109900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>59500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>57800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>61400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>67500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>70500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>74300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>50900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>57600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2791,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
-        <v>2900</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3900</v>
       </c>
       <c r="P44" s="3">
         <v>1800</v>
       </c>
       <c r="Q44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F45" s="3">
         <v>6500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>302000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>2700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>32400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F46" s="3">
         <v>91900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>79900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>69300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>75100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>18200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>322100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>118200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>114800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>113000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>63500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>65700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>66100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>70400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>74700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>77700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>83700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>60200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3131,82 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>861200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>869200</v>
+      </c>
+      <c r="F48" s="3">
         <v>877100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>884900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>892900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>900900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>908800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>916700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>924700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>932300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>939900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>947400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>955000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>962700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>970200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>977300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>984900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>992600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1000100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1007600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>53800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>54300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3300</v>
       </c>
       <c r="M52" s="3">
         <v>3100</v>
       </c>
       <c r="N52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>10300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>12100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>38900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>962700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>969600</v>
+      </c>
+      <c r="F54" s="3">
         <v>971200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>965800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>975500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>973100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>986800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>989200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1249900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1053700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1058000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1063400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1021900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1032200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1041200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1054300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1068100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1080500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1095900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1106700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,108 +3663,116 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>45700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>45500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>252000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>251800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2700</v>
       </c>
       <c r="P58" s="3">
         <v>2700</v>
@@ -3513,222 +3781,246 @@
         <v>2700</v>
       </c>
       <c r="R58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>31700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>31700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F59" s="3">
         <v>20900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>24000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>21300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>12500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>15700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>15600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>12700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>12400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>18300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F60" s="3">
         <v>20900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>62800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>24500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>24000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>64600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>21300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>271500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>272700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>23300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>23400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>21900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>22900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>25400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>25000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>20000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>53100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>573400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>584800</v>
+      </c>
+      <c r="F61" s="3">
         <v>596300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>562000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>619100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>630400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>641800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>607700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>914400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>712000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>460400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>461100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>710500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>710900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>711300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>711700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>712100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>712300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>710900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>684700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4500</v>
       </c>
       <c r="F62" s="3">
         <v>3200</v>
       </c>
       <c r="G62" s="3">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="H62" s="3">
         <v>3200</v>
@@ -3746,37 +4038,43 @@
         <v>3200</v>
       </c>
       <c r="M62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>595200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>610600</v>
+      </c>
+      <c r="F66" s="3">
         <v>620400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>629300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>646800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>651800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>669000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>675500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>938800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>735000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>735100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>737000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>736900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>736000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>734700</v>
       </c>
       <c r="Q66" s="3">
         <v>736000</v>
       </c>
       <c r="R66" s="3">
+        <v>734700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>736000</v>
+      </c>
+      <c r="T66" s="3">
         <v>738700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>738400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>731900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>738800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4204,22 +4540,22 @@
         <v>126700</v>
       </c>
       <c r="M70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="N70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="O70" s="3">
         <v>127100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>73200</v>
-      </c>
-      <c r="O70" s="3">
-        <v>73200</v>
       </c>
       <c r="P70" s="3">
         <v>73200</v>
       </c>
       <c r="Q70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="R70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="S70" s="3">
         <v>73300</v>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>73300</v>
+      </c>
+      <c r="X70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4357,8 +4705,14 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>232300</v>
+      </c>
+      <c r="F76" s="3">
         <v>224000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>209800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>202000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>194600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>191100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>187000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>184400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>192000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>196200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>199400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>211800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>223000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>233200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>245100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>256100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>268900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>290700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>294500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4763,41 +5153,47 @@
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>10000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>7900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7500</v>
       </c>
       <c r="M83" s="3">
         <v>7600</v>
       </c>
       <c r="N83" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="O83" s="3">
         <v>7600</v>
       </c>
       <c r="P83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="Q83" s="3">
         <v>7600</v>
       </c>
       <c r="R83" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="S83" s="3">
         <v>7600</v>
       </c>
       <c r="T83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="U83" s="3">
         <v>7600</v>
       </c>
       <c r="V83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="W83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F89" s="3">
         <v>22900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>18700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>13600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>9200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>13500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>8600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>11900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>15000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>14800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>11400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>18200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>23300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5307,20 +5749,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5331,17 +5773,23 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5503,14 +5963,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5524,10 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5571,31 +6039,31 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-5100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-10600</v>
       </c>
       <c r="O96" s="3">
         <v>-10600</v>
       </c>
       <c r="P96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="Q96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="R96" s="3">
         <v>-16700</v>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="X96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-15200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-14800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-264900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>191200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>41400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-11800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-11800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-18100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-18600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>12000</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-24800</v>
       </c>
       <c r="V100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="X100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F102" s="3">
         <v>9100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-251400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>204700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>50400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>23400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-6700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,249 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E8" s="3">
         <v>34700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>34500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>32000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>41400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>7500</v>
       </c>
       <c r="N9" s="3">
         <v>7500</v>
       </c>
       <c r="O9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P9" s="3">
         <v>7000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,67 +915,70 @@
         <v>27000</v>
       </c>
       <c r="E10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F10" s="3">
         <v>25600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>34000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,37 +1226,37 @@
         <v>8000</v>
       </c>
       <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
         <v>7900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8000</v>
       </c>
       <c r="H15" s="3">
         <v>8000</v>
       </c>
       <c r="I15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J15" s="3">
         <v>7900</v>
       </c>
       <c r="K15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L15" s="3">
         <v>8000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7600</v>
       </c>
       <c r="M15" s="3">
         <v>7600</v>
       </c>
       <c r="N15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O15" s="3">
         <v>7500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7600</v>
       </c>
       <c r="P15" s="3">
         <v>7600</v>
@@ -1243,10 +1265,10 @@
         <v>7600</v>
       </c>
       <c r="R15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S15" s="3">
         <v>7500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>7600</v>
       </c>
       <c r="T15" s="3">
         <v>7600</v>
@@ -1255,16 +1277,19 @@
         <v>7600</v>
       </c>
       <c r="V15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W15" s="3">
         <v>7500</v>
-      </c>
-      <c r="W15" s="3">
-        <v>7600</v>
       </c>
       <c r="X15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,13 +1311,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>18900</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -1321,46 +1347,49 @@
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>17000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>16800</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -1389,41 +1418,44 @@
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>14400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1480,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>200</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1483,46 +1516,49 @@
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>24900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1551,41 +1587,44 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>22400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>19700</v>
       </c>
       <c r="P21" s="3">
         <v>19700</v>
       </c>
       <c r="Q21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="R21" s="3">
         <v>20400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>15100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>29200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1619,46 +1658,49 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>13000</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>13000</v>
       </c>
       <c r="P22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>12700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>11800</v>
       </c>
       <c r="T22" s="3">
         <v>11800</v>
       </c>
       <c r="U22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="V22" s="3">
         <v>12700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>16900</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1687,41 +1729,44 @@
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>12900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1904,16 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>16900</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -1891,46 +1942,49 @@
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>15500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>16900</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -1959,41 +2013,44 @@
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2330,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-200</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -2299,46 +2368,49 @@
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>16900</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -2367,41 +2439,44 @@
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,13 +2543,16 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>16900</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -2503,114 +2581,120 @@
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E41" s="3">
         <v>91300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>86800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>112900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>112300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>59500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>61400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>67500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>70500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>74300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>50900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>57600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,81 +2886,87 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1400</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1000</v>
       </c>
       <c r="X43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>900</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -2879,198 +2974,207 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>800</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3">
         <v>800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>302000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E46" s="3">
         <v>99900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>98800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>91900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>79900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>69300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>75100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>322100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>118200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>114800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>113000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>63500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>65700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>66100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>70400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>74700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>77700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>83700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>60200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3241,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>853200</v>
+      </c>
+      <c r="E48" s="3">
         <v>861200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>869200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>877100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>884900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>892900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>908800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>916700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>924700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>932300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>939900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>947400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>955000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>962700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>970200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>977300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>984900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>992600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1000100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1007600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3100</v>
       </c>
       <c r="M52" s="3">
         <v>3100</v>
       </c>
       <c r="N52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>38900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965500</v>
+      </c>
+      <c r="E54" s="3">
         <v>962700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>969600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>971200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>965800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>975500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>973100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>986800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>989200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1249900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1053700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1058000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1063400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1021900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1032200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1041200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1054300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1068100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1080500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1095900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1106700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3794,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>5700</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -3679,67 +3809,70 @@
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>45900</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3747,35 +3880,35 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>45700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>45500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>252000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>251800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2700</v>
       </c>
       <c r="Q58" s="3">
         <v>2700</v>
@@ -3787,226 +3920,238 @@
         <v>2700</v>
       </c>
       <c r="T58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="U58" s="3">
         <v>2600</v>
       </c>
       <c r="V58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W58" s="3">
         <v>3500</v>
-      </c>
-      <c r="W58" s="3">
-        <v>31700</v>
       </c>
       <c r="X58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
         <v>18700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E60" s="3">
         <v>18700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>271500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>272700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>53100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E61" s="3">
         <v>573400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>584800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>596300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>562000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>619100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>630400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>641800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>607700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>914400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>712000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>460400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>461100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>710500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>710900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>711300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>711700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>712100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>712300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>710900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>684700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,16 +4159,16 @@
         <v>3100</v>
       </c>
       <c r="E62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="3">
         <v>3200</v>
       </c>
       <c r="G62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H62" s="3">
         <v>4500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3200</v>
       </c>
       <c r="I62" s="3">
         <v>3200</v>
@@ -4044,37 +4189,40 @@
         <v>3200</v>
       </c>
       <c r="O62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="P62" s="3">
         <v>3100</v>
       </c>
       <c r="Q62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1000</v>
       </c>
       <c r="W62" s="3">
         <v>1000</v>
       </c>
       <c r="X62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E66" s="3">
         <v>595200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>610600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>620400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>629300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>646800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>651800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>669000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>675500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>938800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>735000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>735100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>737000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>736900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>736000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>734700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>736000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>738700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>738400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>731900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>738800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,13 +4671,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="E70" s="3">
         <v>126700</v>
@@ -4546,10 +4713,10 @@
         <v>126700</v>
       </c>
       <c r="O70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="P70" s="3">
         <v>127100</v>
-      </c>
-      <c r="P70" s="3">
-        <v>73200</v>
       </c>
       <c r="Q70" s="3">
         <v>73200</v>
@@ -4558,7 +4725,7 @@
         <v>73200</v>
       </c>
       <c r="S70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="T70" s="3">
         <v>73300</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E76" s="3">
         <v>240700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>232300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>224000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>209800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>202000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>194600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>191100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>187000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>184400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>196200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>199400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>211800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>223000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>233200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>245100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>256100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>268900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>290700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>294500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,86 +5239,92 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>16900</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
@@ -5159,41 +5353,44 @@
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,37 +5425,37 @@
         <v>8000</v>
       </c>
       <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8000</v>
       </c>
       <c r="H83" s="3">
         <v>8000</v>
       </c>
       <c r="I83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J83" s="3">
         <v>7900</v>
       </c>
       <c r="K83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L83" s="3">
         <v>8000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>7600</v>
       </c>
       <c r="M83" s="3">
         <v>7600</v>
       </c>
       <c r="N83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O83" s="3">
         <v>7500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7600</v>
       </c>
       <c r="P83" s="3">
         <v>7600</v>
@@ -5266,10 +5464,10 @@
         <v>7600</v>
       </c>
       <c r="R83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S83" s="3">
         <v>7500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>7600</v>
       </c>
       <c r="T83" s="3">
         <v>7600</v>
@@ -5278,16 +5476,19 @@
         <v>7600</v>
       </c>
       <c r="V83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W83" s="3">
         <v>7500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>7600</v>
       </c>
       <c r="X83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E89" s="3">
         <v>19800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>18200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5755,17 +5975,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5779,17 +5999,20 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5969,11 +6198,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5990,10 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6045,19 +6278,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-2900</v>
       </c>
       <c r="M96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-10600</v>
       </c>
       <c r="P96" s="3">
         <v>-10600</v>
@@ -6066,7 +6299,7 @@
         <v>-10600</v>
       </c>
       <c r="R96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="S96" s="3">
         <v>-16700</v>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,58 +6544,58 @@
         <v>-15300</v>
       </c>
       <c r="E100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-14900</v>
       </c>
       <c r="J100" s="3">
         <v>-14900</v>
       </c>
       <c r="K100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="L100" s="3">
         <v>-264900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>191200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>41400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-11800</v>
       </c>
       <c r="Q100" s="3">
         <v>-11800</v>
       </c>
       <c r="R100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="S100" s="3">
         <v>-17900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>12000</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-24800</v>
       </c>
       <c r="W100" s="3">
         <v>-24800</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-251400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>204700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E8" s="3">
         <v>35700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>34500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>32000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>39100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>41400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E9" s="3">
         <v>8700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>7500</v>
       </c>
       <c r="O9" s="3">
         <v>7500</v>
       </c>
       <c r="P9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27000</v>
+        <v>25100</v>
       </c>
       <c r="E10" s="3">
         <v>27000</v>
       </c>
       <c r="F10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="G10" s="3">
         <v>25600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>34000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,49 +1237,52 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E15" s="3">
         <v>8000</v>
       </c>
       <c r="F15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G15" s="3">
         <v>7900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8000</v>
       </c>
       <c r="I15" s="3">
         <v>8000</v>
       </c>
       <c r="J15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
       </c>
       <c r="L15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M15" s="3">
         <v>8000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7600</v>
       </c>
       <c r="N15" s="3">
         <v>7600</v>
       </c>
       <c r="O15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P15" s="3">
         <v>7500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7600</v>
       </c>
       <c r="Q15" s="3">
         <v>7600</v>
@@ -1268,10 +1291,10 @@
         <v>7600</v>
       </c>
       <c r="S15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T15" s="3">
         <v>7500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>7600</v>
       </c>
       <c r="U15" s="3">
         <v>7600</v>
@@ -1280,16 +1303,19 @@
         <v>7600</v>
       </c>
       <c r="W15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X15" s="3">
         <v>7500</v>
-      </c>
-      <c r="X15" s="3">
-        <v>7600</v>
       </c>
       <c r="Y15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,17 +1338,18 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>18900</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1350,50 +1377,53 @@
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>17000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>16800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1421,41 +1451,44 @@
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>14400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,17 +1514,18 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1519,50 +1553,53 @@
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>24900</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1590,41 +1627,44 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>22400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>19700</v>
       </c>
       <c r="Q21" s="3">
         <v>19700</v>
       </c>
       <c r="R21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="S21" s="3">
         <v>20400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>15100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>29200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>32000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1661,50 +1701,53 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>13000</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>13000</v>
       </c>
       <c r="Q22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="R22" s="3">
         <v>12700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>11800</v>
       </c>
       <c r="U22" s="3">
         <v>11800</v>
       </c>
       <c r="V22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="W22" s="3">
         <v>12700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>16900</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1732,41 +1775,44 @@
       <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>12900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,17 +1956,20 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>16900</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1945,50 +1997,53 @@
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>15500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>16900</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2016,41 +2071,44 @@
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,17 +2400,20 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2371,50 +2441,53 @@
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>16900</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2442,41 +2515,44 @@
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,17 +2622,20 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>16900</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2584,117 +2663,123 @@
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E41" s="3">
         <v>47000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>86800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>112900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>109900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>59500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>61400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>70500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>74300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>50900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>57600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1400</v>
       </c>
       <c r="G43" s="3">
         <v>1400</v>
       </c>
       <c r="H43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>400</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1000</v>
       </c>
       <c r="Y43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>800</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>302000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E46" s="3">
         <v>51200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>98800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>91900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>79900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>69300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>322100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>118200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>114800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>113000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>63500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>65700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>66100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>70400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>74700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>77700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>83700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>60200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3349,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>845400</v>
+      </c>
+      <c r="E48" s="3">
         <v>853200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>861200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>869200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>877100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>884900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>892900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>908800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>916700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>924700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>932300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>939900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>947400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>955000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>962700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>970200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>977300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>984900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>992600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1000100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1007600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>61100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3100</v>
       </c>
       <c r="N52" s="3">
         <v>3100</v>
       </c>
       <c r="O52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>38900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>985500</v>
+      </c>
+      <c r="E54" s="3">
         <v>965500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>962700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>969600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>971200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>965800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>975500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>973100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>986800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>989200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1249900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1053700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1058000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1063400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1021900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1032200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1041200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1054300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1068100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1080500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1095900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1106700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,123 +3925,127 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>45900</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>45700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>45500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>252000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>251800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2700</v>
       </c>
       <c r="R58" s="3">
         <v>2700</v>
@@ -3923,255 +4057,267 @@
         <v>2700</v>
       </c>
       <c r="U58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="V58" s="3">
         <v>2600</v>
       </c>
       <c r="W58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X58" s="3">
         <v>3500</v>
-      </c>
-      <c r="X58" s="3">
-        <v>31700</v>
       </c>
       <c r="Y58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E60" s="3">
         <v>64900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>62800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>271500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>272700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>53100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>550500</v>
+      </c>
+      <c r="E61" s="3">
         <v>516000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>573400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>584800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>596300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>562000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>619100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>630400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>641800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>607700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>914400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>712000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>460400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>461100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>710500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>710900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>711300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>711700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>712100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>712300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>710900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>684700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
         <v>3100</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G62" s="3">
         <v>3200</v>
       </c>
       <c r="H62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I62" s="3">
         <v>4500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3200</v>
       </c>
       <c r="J62" s="3">
         <v>3200</v>
@@ -4192,37 +4338,40 @@
         <v>3200</v>
       </c>
       <c r="P62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="Q62" s="3">
         <v>3100</v>
       </c>
       <c r="R62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S62" s="3">
         <v>1700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1000</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
       <c r="Y62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E66" s="3">
         <v>584000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>595200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>610600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>620400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>629300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>646800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>651800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>669000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>675500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>938800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>735000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>735100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>737000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>736900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>736000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>734700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>736000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>738700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>738400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>731900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>738800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4683,7 +4851,7 @@
         <v>126800</v>
       </c>
       <c r="E70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="F70" s="3">
         <v>126700</v>
@@ -4716,10 +4884,10 @@
         <v>126700</v>
       </c>
       <c r="P70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="Q70" s="3">
         <v>127100</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>73200</v>
       </c>
       <c r="R70" s="3">
         <v>73200</v>
@@ -4728,7 +4896,7 @@
         <v>73200</v>
       </c>
       <c r="T70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="U70" s="3">
         <v>73300</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E76" s="3">
         <v>254700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>240700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>232300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>209800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>202000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>194600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>187000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>196200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>199400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>211800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>223000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>233200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>245100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>256100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>268900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>290700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>294500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,93 +5431,99 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>16900</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5356,41 +5551,44 @@
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,49 +5614,50 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E83" s="3">
         <v>8000</v>
       </c>
       <c r="F83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8000</v>
       </c>
       <c r="I83" s="3">
         <v>8000</v>
       </c>
       <c r="J83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="K83" s="3">
         <v>7900</v>
       </c>
       <c r="L83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M83" s="3">
         <v>8000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7600</v>
       </c>
       <c r="N83" s="3">
         <v>7600</v>
       </c>
       <c r="O83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P83" s="3">
         <v>7500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7600</v>
       </c>
       <c r="Q83" s="3">
         <v>7600</v>
@@ -5467,10 +5666,10 @@
         <v>7600</v>
       </c>
       <c r="S83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T83" s="3">
         <v>7500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7600</v>
       </c>
       <c r="U83" s="3">
         <v>7600</v>
@@ -5479,16 +5678,19 @@
         <v>7600</v>
       </c>
       <c r="W83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X83" s="3">
         <v>7500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>7600</v>
       </c>
       <c r="Y83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E89" s="3">
         <v>21000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,31 +6160,32 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5978,17 +6199,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6002,17 +6223,20 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,25 +6380,28 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -6201,11 +6431,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6222,10 +6452,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6281,19 +6515,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-2900</v>
       </c>
       <c r="N96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-10600</v>
       </c>
       <c r="Q96" s="3">
         <v>-10600</v>
@@ -6302,7 +6536,7 @@
         <v>-10600</v>
       </c>
       <c r="S96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="T96" s="3">
         <v>-16700</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,70 +6778,73 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="E100" s="3">
         <v>-15300</v>
       </c>
       <c r="F100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-13100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-14900</v>
       </c>
       <c r="K100" s="3">
         <v>-14900</v>
       </c>
       <c r="L100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="M100" s="3">
         <v>-264900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>191200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>41400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-11800</v>
       </c>
       <c r="R100" s="3">
         <v>-11800</v>
       </c>
       <c r="S100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="T100" s="3">
         <v>-17900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>12000</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-24800</v>
       </c>
       <c r="X100" s="3">
         <v>-24800</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-251400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>204700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E8" s="3">
         <v>33300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>34500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>32000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>39100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>41400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,147 +858,153 @@
         <v>8200</v>
       </c>
       <c r="E9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>7500</v>
       </c>
       <c r="P9" s="3">
         <v>7500</v>
       </c>
       <c r="Q9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="R9" s="3">
         <v>7000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E10" s="3">
         <v>25100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>27000</v>
       </c>
       <c r="F10" s="3">
         <v>27000</v>
       </c>
       <c r="G10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H10" s="3">
         <v>25600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>23200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>34000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,52 +1260,55 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E15" s="3">
         <v>7800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8000</v>
       </c>
       <c r="F15" s="3">
         <v>8000</v>
       </c>
       <c r="G15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H15" s="3">
         <v>7900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8000</v>
       </c>
       <c r="J15" s="3">
         <v>8000</v>
       </c>
       <c r="K15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="L15" s="3">
         <v>7900</v>
       </c>
       <c r="M15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N15" s="3">
         <v>8000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>7600</v>
       </c>
       <c r="O15" s="3">
         <v>7600</v>
       </c>
       <c r="P15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7600</v>
       </c>
       <c r="R15" s="3">
         <v>7600</v>
@@ -1294,10 +1317,10 @@
         <v>7600</v>
       </c>
       <c r="T15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U15" s="3">
         <v>7500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>7600</v>
       </c>
       <c r="V15" s="3">
         <v>7600</v>
@@ -1306,16 +1329,19 @@
         <v>7600</v>
       </c>
       <c r="X15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Y15" s="3">
         <v>7500</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>7600</v>
       </c>
       <c r="Z15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,20 +1365,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
         <v>18900</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1380,53 +1407,56 @@
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>17000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>16800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1454,41 +1484,44 @@
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>14400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>12600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>15900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>24300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,20 +1548,21 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1556,53 +1590,56 @@
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>24900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1630,64 +1667,67 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>22400</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>19700</v>
       </c>
       <c r="R21" s="3">
         <v>19700</v>
       </c>
       <c r="S21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="T21" s="3">
         <v>20400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>15100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>29200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>32000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1704,53 +1744,56 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>13000</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>13000</v>
       </c>
       <c r="R22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="S22" s="3">
         <v>12700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>11800</v>
       </c>
       <c r="V22" s="3">
         <v>11800</v>
       </c>
       <c r="W22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="X22" s="3">
         <v>12700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>8800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
         <v>16900</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1778,41 +1821,44 @@
       <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>12900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,20 +2008,23 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2000,53 +2052,56 @@
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>15500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
         <v>16900</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2074,41 +2129,44 @@
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,20 +2470,23 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2444,53 +2514,56 @@
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
         <v>16900</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2518,41 +2591,44 @@
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,20 +2701,23 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
         <v>16900</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2666,120 +2745,126 @@
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E41" s="3">
         <v>106600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>86800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>109900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>59500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>57800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>67500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>70500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>74300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>50900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>57600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1400</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>400</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1000</v>
       </c>
       <c r="Z43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>800</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3">
         <v>800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E45" s="3">
         <v>29200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>302000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E46" s="3">
         <v>138600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>51200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>99900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>91900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>79900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>69300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>322100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>118200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>114800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>63500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>65700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>66100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>70400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>74700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>77700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>83700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>60200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,82 +3457,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>838800</v>
+      </c>
+      <c r="E48" s="3">
         <v>845400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>853200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>861200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>869200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>877100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>884900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>892900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>908800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>916700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>924700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>932300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>939900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>947400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>955000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>962700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>970200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>977300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>984900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>992600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1000100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1007600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3657,73 +3777,76 @@
         <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F52" s="3">
         <v>61100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3100</v>
       </c>
       <c r="O52" s="3">
         <v>3100</v>
       </c>
       <c r="P52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>38900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>978900</v>
+      </c>
+      <c r="E54" s="3">
         <v>985500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>965500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>962700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>969600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>971200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>965800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>975500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>973100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>986800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>989200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1249900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1053700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1063400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1021900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1032200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1041200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1054300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1068100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1080500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1095900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1106700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,129 +4056,133 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>45900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>45700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>45500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>252000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>251800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2700</v>
       </c>
       <c r="S58" s="3">
         <v>2700</v>
@@ -4060,267 +4194,279 @@
         <v>2700</v>
       </c>
       <c r="V58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="W58" s="3">
         <v>2600</v>
       </c>
       <c r="X58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>31700</v>
       </c>
       <c r="Z58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E59" s="3">
         <v>29500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>18300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E60" s="3">
         <v>29500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>62800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>271500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>272700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>25000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>53100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E61" s="3">
         <v>550500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>516000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>573400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>584800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>596300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>562000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>619100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>630400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>641800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>607700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>914400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>712000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>460400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>461100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>710500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>710900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>711300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>711700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>712100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>712300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>710900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>684700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3100</v>
       </c>
       <c r="F62" s="3">
         <v>3100</v>
       </c>
       <c r="G62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H62" s="3">
         <v>3200</v>
       </c>
       <c r="I62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J62" s="3">
         <v>4500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3200</v>
       </c>
       <c r="K62" s="3">
         <v>3200</v>
@@ -4341,37 +4487,40 @@
         <v>3200</v>
       </c>
       <c r="Q62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="R62" s="3">
         <v>3100</v>
       </c>
       <c r="S62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T62" s="3">
         <v>1700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1000</v>
       </c>
       <c r="Y62" s="3">
         <v>1000</v>
       </c>
       <c r="Z62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>568200</v>
+      </c>
+      <c r="E66" s="3">
         <v>583000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>584000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>595200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>610600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>620400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>629300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>646800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>651800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>669000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>675500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>938800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>735000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>735100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>737000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>736900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>736000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>734700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>736000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>738700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>738400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>731900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>738800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4854,7 +5022,7 @@
         <v>126800</v>
       </c>
       <c r="F70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="G70" s="3">
         <v>126700</v>
@@ -4887,10 +5055,10 @@
         <v>126700</v>
       </c>
       <c r="Q70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="R70" s="3">
         <v>127100</v>
-      </c>
-      <c r="R70" s="3">
-        <v>73200</v>
       </c>
       <c r="S70" s="3">
         <v>73200</v>
@@ -4899,7 +5067,7 @@
         <v>73200</v>
       </c>
       <c r="U70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="V70" s="3">
         <v>73300</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E76" s="3">
         <v>275700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>254700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>240700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>232300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>209800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>202000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>194600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>191100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>187000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>184400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>192000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>196200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>199400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>211800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>223000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>233200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>245100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>256100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>268900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>290700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>294500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,99 +5623,105 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
         <v>16900</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5554,41 +5749,44 @@
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,52 +5813,53 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8000</v>
       </c>
       <c r="F83" s="3">
         <v>8000</v>
       </c>
       <c r="G83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8000</v>
       </c>
       <c r="J83" s="3">
         <v>8000</v>
       </c>
       <c r="K83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="L83" s="3">
         <v>7900</v>
       </c>
       <c r="M83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N83" s="3">
         <v>8000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7600</v>
       </c>
       <c r="O83" s="3">
         <v>7600</v>
       </c>
       <c r="P83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7600</v>
       </c>
       <c r="R83" s="3">
         <v>7600</v>
@@ -5669,10 +5868,10 @@
         <v>7600</v>
       </c>
       <c r="T83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U83" s="3">
         <v>7500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>7600</v>
       </c>
       <c r="V83" s="3">
         <v>7600</v>
@@ -5681,16 +5880,19 @@
         <v>7600</v>
       </c>
       <c r="X83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>7500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>7600</v>
       </c>
       <c r="Z83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>24800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>15000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>23300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,17 +6381,18 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
@@ -6187,8 +6408,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6202,17 +6423,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -6226,17 +6447,20 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,17 +6610,20 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6403,8 +6633,8 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -6434,11 +6664,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6455,10 +6685,13 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6518,19 +6752,19 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-2900</v>
       </c>
       <c r="O96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-10600</v>
       </c>
       <c r="R96" s="3">
         <v>-10600</v>
@@ -6539,7 +6773,7 @@
         <v>-10600</v>
       </c>
       <c r="T96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="U96" s="3">
         <v>-16700</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,73 +7024,76 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-15300</v>
       </c>
       <c r="F100" s="3">
         <v>-15300</v>
       </c>
       <c r="G100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-13100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-14900</v>
       </c>
       <c r="L100" s="3">
         <v>-14900</v>
       </c>
       <c r="M100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="N100" s="3">
         <v>-264900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>191200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>41400</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-11800</v>
       </c>
       <c r="S100" s="3">
         <v>-11800</v>
       </c>
       <c r="T100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="U100" s="3">
         <v>-17900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12000</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-24800</v>
       </c>
       <c r="Y100" s="3">
         <v>-24800</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-251400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>204700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>23400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E8" s="3">
         <v>33400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>30900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>34500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>32000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>39100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>41400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E9" s="3">
         <v>8200</v>
       </c>
       <c r="F9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>7500</v>
       </c>
       <c r="Q9" s="3">
         <v>7500</v>
       </c>
       <c r="R9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="S9" s="3">
         <v>7000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>27000</v>
       </c>
       <c r="G10" s="3">
         <v>27000</v>
       </c>
       <c r="H10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I10" s="3">
         <v>25600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>23200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>31600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>34000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,55 +1283,58 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
         <v>7900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>8000</v>
       </c>
       <c r="G15" s="3">
         <v>8000</v>
       </c>
       <c r="H15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I15" s="3">
         <v>7900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>8000</v>
       </c>
       <c r="K15" s="3">
         <v>8000</v>
       </c>
       <c r="L15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="M15" s="3">
         <v>7900</v>
       </c>
       <c r="N15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O15" s="3">
         <v>8000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>7600</v>
       </c>
       <c r="P15" s="3">
         <v>7600</v>
       </c>
       <c r="Q15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="R15" s="3">
         <v>7500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7600</v>
       </c>
       <c r="S15" s="3">
         <v>7600</v>
@@ -1320,10 +1343,10 @@
         <v>7600</v>
       </c>
       <c r="U15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="V15" s="3">
         <v>7500</v>
-      </c>
-      <c r="V15" s="3">
-        <v>7600</v>
       </c>
       <c r="W15" s="3">
         <v>7600</v>
@@ -1332,16 +1355,19 @@
         <v>7600</v>
       </c>
       <c r="Y15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Z15" s="3">
         <v>7500</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>7600</v>
       </c>
       <c r="AA15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1377,12 +1404,12 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
         <v>18900</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1410,41 +1437,44 @@
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>17000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>23200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1454,12 +1484,12 @@
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>16800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1487,41 +1517,44 @@
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>14400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>15900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>24300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,12 +1594,12 @@
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1593,41 +1627,44 @@
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,12 +1674,12 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>24900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1670,41 +1707,44 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>22400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>19700</v>
       </c>
       <c r="S21" s="3">
         <v>19700</v>
       </c>
       <c r="T21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="U21" s="3">
         <v>20400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>15100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>29200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>32000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1747,41 +1787,44 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>13000</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>13000</v>
       </c>
       <c r="S22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="T22" s="3">
         <v>12700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>11800</v>
       </c>
       <c r="W22" s="3">
         <v>11800</v>
       </c>
       <c r="X22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Y22" s="3">
         <v>12700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>8800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1791,12 +1834,12 @@
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1824,41 +1867,44 @@
       <c r="P23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>12900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>15500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2022,12 +2074,12 @@
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2055,41 +2107,44 @@
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>15500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2099,12 +2154,12 @@
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
         <v>16900</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2132,41 +2187,44 @@
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2484,12 +2554,12 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2517,41 +2587,44 @@
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2561,12 +2634,12 @@
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
         <v>16900</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,41 +2667,44 @@
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>7900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2715,12 +2794,12 @@
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
         <v>16900</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2748,123 +2827,129 @@
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>7900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E41" s="3">
         <v>100200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>86800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>112300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>109900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>59500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>61400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>67500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>70500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>74300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>50900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>57600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1400</v>
       </c>
       <c r="I43" s="3">
         <v>1400</v>
       </c>
       <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>400</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1000</v>
       </c>
       <c r="AA43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3163,228 +3259,237 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>800</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
         <v>800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E45" s="3">
         <v>34500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>302000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>32400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E46" s="3">
         <v>138500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>51200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>99900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>91900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>69300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>322100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>118200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>114800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>63500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>65700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>66100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>70400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>74700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>77700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>83700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>60200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,85 +3565,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>833100</v>
+      </c>
+      <c r="E48" s="3">
         <v>838800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>845400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>853200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>861200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>869200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>877100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>884900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>892900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>908800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>916700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>924700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>932300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>939900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>947400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>955000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>962700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>970200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>977300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>984900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>992600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1000100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1007600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>1500</v>
       </c>
       <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>61100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3100</v>
       </c>
       <c r="P52" s="3">
         <v>3100</v>
       </c>
       <c r="Q52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>12100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>38900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>974400</v>
+      </c>
+      <c r="E54" s="3">
         <v>978900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>985500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>965500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>962700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>969600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>971200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>965800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>975500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>973100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>986800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>989200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1249900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1053700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1058000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1063400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1021900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1032200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1041200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1054300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1068100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1080500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1095900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1106700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4068,74 +4199,77 @@
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,47 +4279,47 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>45900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>45700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>45500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>252000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>251800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2700</v>
       </c>
       <c r="T58" s="3">
         <v>2700</v>
@@ -4197,279 +4331,291 @@
         <v>2700</v>
       </c>
       <c r="W58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="X58" s="3">
         <v>2600</v>
       </c>
       <c r="Y58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3500</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>31700</v>
       </c>
       <c r="AA58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E59" s="3">
         <v>26300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>18300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E60" s="3">
         <v>26300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>29500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>62800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>271500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>272700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>25400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>25000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>53100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>527500</v>
+      </c>
+      <c r="E61" s="3">
         <v>539000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>550500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>516000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>573400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>584800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>596300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>562000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>619100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>630400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>641800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>607700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>914400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>712000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>460400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>461100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>710500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>710900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>711300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>711700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>712100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>712300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>710900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>684700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3100</v>
       </c>
       <c r="G62" s="3">
         <v>3100</v>
       </c>
       <c r="H62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I62" s="3">
         <v>3200</v>
       </c>
       <c r="J62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3200</v>
       </c>
       <c r="L62" s="3">
         <v>3200</v>
@@ -4490,37 +4636,40 @@
         <v>3200</v>
       </c>
       <c r="R62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="S62" s="3">
         <v>3100</v>
       </c>
       <c r="T62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U62" s="3">
         <v>1700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>1000</v>
       </c>
       <c r="Z62" s="3">
         <v>1000</v>
       </c>
       <c r="AA62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>559200</v>
+      </c>
+      <c r="E66" s="3">
         <v>568200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>583000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>584000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>595200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>610600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>620400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>629300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>646800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>651800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>669000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>675500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>938800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>735000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>735100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>737000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>736900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>736000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>734700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>736000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>738700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>738400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>731900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>738800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5025,7 +5193,7 @@
         <v>126800</v>
       </c>
       <c r="G70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="H70" s="3">
         <v>126700</v>
@@ -5058,10 +5226,10 @@
         <v>126700</v>
       </c>
       <c r="R70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="S70" s="3">
         <v>127100</v>
-      </c>
-      <c r="S70" s="3">
-        <v>73200</v>
       </c>
       <c r="T70" s="3">
         <v>73200</v>
@@ -5070,7 +5238,7 @@
         <v>73200</v>
       </c>
       <c r="V70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="W70" s="3">
         <v>73300</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E76" s="3">
         <v>283900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>275700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>254700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>240700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>232300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>209800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>202000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>194600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>191100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>187000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>184400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>192000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>196200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>199400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>211800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>223000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>233200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>245100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>256100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>268900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>290700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>294500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5719,12 +5914,12 @@
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
         <v>16900</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5752,41 +5947,44 @@
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>7900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,55 +6012,56 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8000</v>
       </c>
       <c r="G83" s="3">
         <v>8000</v>
       </c>
       <c r="H83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8000</v>
       </c>
       <c r="K83" s="3">
         <v>8000</v>
       </c>
       <c r="L83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="M83" s="3">
         <v>7900</v>
       </c>
       <c r="N83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O83" s="3">
         <v>8000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7600</v>
       </c>
       <c r="P83" s="3">
         <v>7600</v>
       </c>
       <c r="Q83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="R83" s="3">
         <v>7500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7600</v>
       </c>
       <c r="S83" s="3">
         <v>7600</v>
@@ -5871,10 +6070,10 @@
         <v>7600</v>
       </c>
       <c r="U83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="V83" s="3">
         <v>7500</v>
-      </c>
-      <c r="V83" s="3">
-        <v>7600</v>
       </c>
       <c r="W83" s="3">
         <v>7600</v>
@@ -5883,16 +6082,19 @@
         <v>7600</v>
       </c>
       <c r="Y83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>7500</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>7600</v>
       </c>
       <c r="AA83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>18200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,20 +6602,21 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -6411,8 +6632,8 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6426,17 +6647,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -6450,17 +6671,20 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,20 +6840,23 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6636,8 +6866,8 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6667,11 +6897,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6688,10 +6918,13 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6755,19 +6989,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-2900</v>
       </c>
       <c r="P96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-10600</v>
       </c>
       <c r="S96" s="3">
         <v>-10600</v>
@@ -6776,7 +7010,7 @@
         <v>-10600</v>
       </c>
       <c r="U96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="V96" s="3">
         <v>-16700</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,76 +7270,79 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-15300</v>
       </c>
       <c r="G100" s="3">
         <v>-15300</v>
       </c>
       <c r="H100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-13100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-14900</v>
       </c>
       <c r="M100" s="3">
         <v>-14900</v>
       </c>
       <c r="N100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="O100" s="3">
         <v>-264900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>191200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>41400</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-11800</v>
       </c>
       <c r="T100" s="3">
         <v>-11800</v>
       </c>
       <c r="U100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="V100" s="3">
         <v>-17900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12000</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-24800</v>
       </c>
       <c r="Z100" s="3">
         <v>-24800</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-251400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>204700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>23400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E8" s="3">
         <v>29900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>34500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>32000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>39100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>41400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>8200</v>
       </c>
       <c r="F9" s="3">
         <v>8200</v>
       </c>
       <c r="G9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H9" s="3">
         <v>8700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>7500</v>
       </c>
       <c r="R9" s="3">
         <v>7500</v>
       </c>
       <c r="S9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="T9" s="3">
         <v>7000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>7500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E10" s="3">
         <v>22000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>27000</v>
       </c>
       <c r="H10" s="3">
         <v>27000</v>
       </c>
       <c r="I10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J10" s="3">
         <v>25600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>23200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>31600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>34000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,31 +1222,34 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-2100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,49 +1317,49 @@
         <v>8000</v>
       </c>
       <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
         <v>7900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8000</v>
       </c>
       <c r="H15" s="3">
         <v>8000</v>
       </c>
       <c r="I15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J15" s="3">
         <v>7900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>8000</v>
       </c>
       <c r="L15" s="3">
         <v>8000</v>
       </c>
       <c r="M15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="N15" s="3">
         <v>7900</v>
       </c>
       <c r="O15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P15" s="3">
         <v>8000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>7600</v>
       </c>
       <c r="Q15" s="3">
         <v>7600</v>
       </c>
       <c r="R15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S15" s="3">
         <v>7500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>7600</v>
       </c>
       <c r="T15" s="3">
         <v>7600</v>
@@ -1346,10 +1368,10 @@
         <v>7600</v>
       </c>
       <c r="V15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W15" s="3">
         <v>7500</v>
-      </c>
-      <c r="W15" s="3">
-        <v>7600</v>
       </c>
       <c r="X15" s="3">
         <v>7600</v>
@@ -1358,16 +1380,19 @@
         <v>7600</v>
       </c>
       <c r="Z15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AA15" s="3">
         <v>7500</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>7600</v>
       </c>
       <c r="AB15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1407,12 +1433,12 @@
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3">
         <v>18900</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1440,41 +1466,44 @@
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>17000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>23200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,12 +1516,12 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>16800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1520,41 +1549,44 @@
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>14400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>24300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1597,12 +1630,12 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1630,41 +1663,44 @@
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1677,12 +1713,12 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>24900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1710,41 +1746,44 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>22400</v>
-      </c>
-      <c r="S21" s="3">
-        <v>19700</v>
       </c>
       <c r="T21" s="3">
         <v>19700</v>
       </c>
       <c r="U21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="V21" s="3">
         <v>20400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>24300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>23400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>15100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>29200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>32000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1772,8 +1811,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1790,41 +1829,44 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>13000</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>13000</v>
       </c>
       <c r="T22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="U22" s="3">
         <v>12700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>11800</v>
       </c>
       <c r="X22" s="3">
         <v>11800</v>
       </c>
       <c r="Y22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Z22" s="3">
         <v>12700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>8800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1837,12 +1879,12 @@
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1870,41 +1912,44 @@
       <c r="Q23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>12900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>15500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2111,11 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2077,12 +2128,12 @@
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2110,41 +2161,44 @@
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>15500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2157,12 +2211,12 @@
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3">
         <v>16900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2190,41 +2244,44 @@
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>7900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2557,12 +2626,12 @@
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2590,41 +2659,44 @@
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2637,12 +2709,12 @@
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3">
         <v>16900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2670,41 +2742,44 @@
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>7900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2858,11 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2797,12 +2875,12 @@
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3">
         <v>16900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2830,126 +2908,132 @@
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>7900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E41" s="3">
         <v>97700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>86800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>112900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>112300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>109900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>59500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>57800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>61400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>67500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>70500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>74300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>50900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>57600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3257,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1400</v>
       </c>
       <c r="J43" s="3">
         <v>1400</v>
       </c>
       <c r="K43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>400</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>1000</v>
       </c>
       <c r="AB43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3262,234 +3357,243 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>800</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="3">
         <v>800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>40800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>302000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E46" s="3">
         <v>139900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>138500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>99900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>91900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>69300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>322100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>118200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>114800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>113000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>63500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>65700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>66100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>70400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>74700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>77700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>83700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>60200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,88 +3672,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>825100</v>
+      </c>
+      <c r="E48" s="3">
         <v>833100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>838800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>845400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>853200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>861200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>869200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>877100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>884900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>892900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>908800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>916700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>924700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>932300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>939900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>947400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>955000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>962700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>970200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>977300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>984900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>992600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1000100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1007600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
       </c>
       <c r="G52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H52" s="3">
         <v>61100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3100</v>
       </c>
       <c r="Q52" s="3">
         <v>3100</v>
       </c>
       <c r="R52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>12100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>38900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>947700</v>
+      </c>
+      <c r="E54" s="3">
         <v>974400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>978900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>985500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>965500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>962700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>969600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>971200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>965800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>975500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>973100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>986800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>989200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1249900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1053700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1058000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1063400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1021900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1032200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1041200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1054300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1068100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1080500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1095900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1106700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4202,74 +4332,77 @@
       <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>5500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>5000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4282,47 +4415,47 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>45900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>45700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>45500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>252000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>251800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2700</v>
       </c>
       <c r="U58" s="3">
         <v>2700</v>
@@ -4334,291 +4467,303 @@
         <v>2700</v>
       </c>
       <c r="X58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="Y58" s="3">
         <v>2600</v>
       </c>
       <c r="Z58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3500</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>31700</v>
       </c>
       <c r="AB58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E59" s="3">
         <v>28800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>18300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E60" s="3">
         <v>28800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>271500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>272700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>25400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>25000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>53100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>450800</v>
+      </c>
+      <c r="E61" s="3">
         <v>527500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>539000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>550500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>516000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>573400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>584800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>596300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>562000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>619100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>630400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>641800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>607700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>914400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>712000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>460400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>461100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>710500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>710900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>711300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>711700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>712100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>712300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>710900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>684700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3100</v>
       </c>
       <c r="H62" s="3">
         <v>3100</v>
       </c>
       <c r="I62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
         <v>3200</v>
       </c>
       <c r="K62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L62" s="3">
         <v>4500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3200</v>
       </c>
       <c r="M62" s="3">
         <v>3200</v>
@@ -4639,37 +4784,40 @@
         <v>3200</v>
       </c>
       <c r="S62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="T62" s="3">
         <v>3100</v>
       </c>
       <c r="U62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V62" s="3">
         <v>1700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>1000</v>
       </c>
       <c r="AA62" s="3">
         <v>1000</v>
       </c>
       <c r="AB62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>523800</v>
+      </c>
+      <c r="E66" s="3">
         <v>559200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>568200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>583000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>584000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>595200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>610600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>620400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>629300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>646800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>651800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>669000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>675500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>938800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>735000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>735100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>737000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>736900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>736000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>734700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>736000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>738700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>738400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>731900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>738800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5196,7 +5363,7 @@
         <v>126800</v>
       </c>
       <c r="H70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="I70" s="3">
         <v>126700</v>
@@ -5229,10 +5396,10 @@
         <v>126700</v>
       </c>
       <c r="S70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="T70" s="3">
         <v>127100</v>
-      </c>
-      <c r="T70" s="3">
-        <v>73200</v>
       </c>
       <c r="U70" s="3">
         <v>73200</v>
@@ -5241,7 +5408,7 @@
         <v>73200</v>
       </c>
       <c r="W70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="X70" s="3">
         <v>73300</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5508,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>297100</v>
+      </c>
+      <c r="E76" s="3">
         <v>288400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>283900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>275700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>254700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>240700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>232300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>224000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>209800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>202000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>194600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>187000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>184400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>192000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>196200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>199400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>211800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>223000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>233200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>245100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>256100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>268900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>290700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>294500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6006,99 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5917,12 +6111,12 @@
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3">
         <v>16900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
@@ -5950,41 +6144,44 @@
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>7900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,49 +6220,49 @@
         <v>8000</v>
       </c>
       <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8000</v>
       </c>
       <c r="H83" s="3">
         <v>8000</v>
       </c>
       <c r="I83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8000</v>
       </c>
       <c r="L83" s="3">
         <v>8000</v>
       </c>
       <c r="M83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="N83" s="3">
         <v>7900</v>
       </c>
       <c r="O83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P83" s="3">
         <v>8000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7600</v>
       </c>
       <c r="Q83" s="3">
         <v>7600</v>
       </c>
       <c r="R83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="S83" s="3">
         <v>7500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>7600</v>
       </c>
       <c r="T83" s="3">
         <v>7600</v>
@@ -6073,10 +6271,10 @@
         <v>7600</v>
       </c>
       <c r="V83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W83" s="3">
         <v>7500</v>
-      </c>
-      <c r="W83" s="3">
-        <v>7600</v>
       </c>
       <c r="X83" s="3">
         <v>7600</v>
@@ -6085,16 +6283,19 @@
         <v>7600</v>
       </c>
       <c r="Z83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>7500</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>7600</v>
       </c>
       <c r="AB83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>18200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>23300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,31 +6822,32 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -6635,8 +6855,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6650,17 +6870,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -6674,17 +6894,20 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,23 +7069,26 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -6869,8 +7098,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6900,11 +7129,11 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6921,10 +7150,13 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6992,19 +7225,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-2900</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-5100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-10600</v>
       </c>
       <c r="T96" s="3">
         <v>-10600</v>
@@ -7013,7 +7246,7 @@
         <v>-10600</v>
       </c>
       <c r="V96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="W96" s="3">
         <v>-16700</v>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,79 +7515,82 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-15300</v>
       </c>
       <c r="H100" s="3">
         <v>-15300</v>
       </c>
       <c r="I100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-13100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-14900</v>
       </c>
       <c r="N100" s="3">
         <v>-14900</v>
       </c>
       <c r="O100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="P100" s="3">
         <v>-264900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>191200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>41400</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-11800</v>
       </c>
       <c r="U100" s="3">
         <v>-11800</v>
       </c>
       <c r="V100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="W100" s="3">
         <v>-17900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>12000</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-24800</v>
       </c>
       <c r="AA100" s="3">
         <v>-24800</v>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-251400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>204700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E8" s="3">
         <v>35100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>35700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>34500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>33500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>32000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>39100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>41400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8200</v>
       </c>
       <c r="G9" s="3">
         <v>8200</v>
       </c>
       <c r="H9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>7500</v>
       </c>
       <c r="S9" s="3">
         <v>7500</v>
       </c>
       <c r="T9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="U9" s="3">
         <v>7000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>7500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E10" s="3">
         <v>26600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>27000</v>
       </c>
       <c r="I10" s="3">
         <v>27000</v>
       </c>
       <c r="J10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K10" s="3">
         <v>25600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>23300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>26900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>27100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>26600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>23200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>31600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>34000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,17 +1242,20 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1251,8 +1271,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1308,61 +1328,64 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="E15" s="3">
         <v>8000</v>
       </c>
       <c r="F15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G15" s="3">
         <v>7900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8000</v>
       </c>
       <c r="I15" s="3">
         <v>8000</v>
       </c>
       <c r="J15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K15" s="3">
         <v>7900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>8000</v>
       </c>
       <c r="M15" s="3">
         <v>8000</v>
       </c>
       <c r="N15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="O15" s="3">
         <v>7900</v>
       </c>
       <c r="P15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>7600</v>
       </c>
       <c r="R15" s="3">
         <v>7600</v>
       </c>
       <c r="S15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T15" s="3">
         <v>7500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>7600</v>
       </c>
       <c r="U15" s="3">
         <v>7600</v>
@@ -1371,10 +1394,10 @@
         <v>7600</v>
       </c>
       <c r="W15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X15" s="3">
         <v>7500</v>
-      </c>
-      <c r="X15" s="3">
-        <v>7600</v>
       </c>
       <c r="Y15" s="3">
         <v>7600</v>
@@ -1383,16 +1406,19 @@
         <v>7600</v>
       </c>
       <c r="AA15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AB15" s="3">
         <v>7500</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>7600</v>
       </c>
       <c r="AC15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,13 +1445,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>18100</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -1436,12 +1463,12 @@
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3">
         <v>18900</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1469,46 +1496,49 @@
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>17000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>19200</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -1519,12 +1549,12 @@
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>16800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1552,41 +1582,44 @@
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>14400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>11700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>17500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>21900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>24300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,13 +1649,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-9600</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -1633,12 +1667,12 @@
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1666,46 +1700,49 @@
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>17500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1716,12 +1753,12 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>24900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1749,41 +1786,44 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>22400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>19700</v>
       </c>
       <c r="U21" s="3">
         <v>19700</v>
       </c>
       <c r="V21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="W21" s="3">
         <v>20400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>24300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>25100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>23400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>15100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>29200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>32000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1814,8 +1854,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1832,46 +1872,49 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>13000</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>13000</v>
       </c>
       <c r="U22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="V22" s="3">
         <v>12700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>11800</v>
       </c>
       <c r="Y22" s="3">
         <v>11800</v>
       </c>
       <c r="Z22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="AA22" s="3">
         <v>12700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>8800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>9600</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -1882,12 +1925,12 @@
       <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1915,41 +1958,44 @@
       <c r="R23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>15500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,13 +2163,16 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>9600</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2131,12 +2183,12 @@
       <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,46 +2216,49 @@
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>12900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>15500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>9600</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -2214,12 +2269,12 @@
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
         <v>16900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2247,41 +2302,44 @@
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>7900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,13 +2679,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>9600</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>8</v>
@@ -2629,12 +2699,12 @@
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2662,46 +2732,49 @@
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>9600</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -2712,12 +2785,12 @@
       <c r="G33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
         <v>16900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2745,41 +2818,44 @@
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>7900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,13 +2937,16 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>9600</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -2878,12 +2957,12 @@
       <c r="G35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
         <v>16900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2911,129 +2990,135 @@
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>7900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E41" s="3">
         <v>48600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>91300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>86800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>112900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>112300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>109900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>59500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>57800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>61400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>67500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>70500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>74300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>50900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>57600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,91 +3350,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>22500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1400</v>
       </c>
       <c r="K43" s="3">
         <v>1400</v>
       </c>
       <c r="L43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>400</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>1000</v>
       </c>
       <c r="AC43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3360,240 +3456,249 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>800</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3">
         <v>800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>302000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>32400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E46" s="3">
         <v>74200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>139900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>138500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>99900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>91900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>79900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>69300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>75100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>322100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>118200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>114800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>113000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>63500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>65700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>66100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>70400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>74700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>77700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>83700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>60200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,91 +3780,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>817200</v>
+      </c>
+      <c r="E48" s="3">
         <v>825100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>833100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>838800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>845400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>853200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>861200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>869200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>877100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>884900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>892900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>908800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>916700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>924700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>932300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>939900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>947400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>955000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>962700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>970200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>977300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>984900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>992600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1000100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1007600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>48400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1500</v>
       </c>
       <c r="G52" s="3">
         <v>1500</v>
       </c>
       <c r="H52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I52" s="3">
         <v>61100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3100</v>
       </c>
       <c r="R52" s="3">
         <v>3100</v>
       </c>
       <c r="S52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>12100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>38900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>910800</v>
+      </c>
+      <c r="E54" s="3">
         <v>947700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>974400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>978900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>985500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>965500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>962700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>969600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>971200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>965800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>975500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>973100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>986800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>989200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1249900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1053700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1058000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1063400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1021900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1032200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1041200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1054300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1068100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1080500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1095900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1106700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4335,74 +4466,77 @@
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>5500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4418,47 +4552,47 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3">
         <v>45900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>45700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>45500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>252000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>251800</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2700</v>
       </c>
       <c r="V58" s="3">
         <v>2700</v>
@@ -4470,271 +4604,283 @@
         <v>2700</v>
       </c>
       <c r="Y58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="Z58" s="3">
         <v>2600</v>
       </c>
       <c r="AA58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3500</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>31700</v>
       </c>
       <c r="AC58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E59" s="3">
         <v>70300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>18300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E60" s="3">
         <v>70300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>29500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>62800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>271500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>272700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>25400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>25000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>53100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>454400</v>
+      </c>
+      <c r="E61" s="3">
         <v>450800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>527500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>539000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>550500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>516000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>573400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>584800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>596300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>562000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>619100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>630400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>641800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>607700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>914400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>712000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>460400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>461100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>710500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>710900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>711300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>711700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>712100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>712300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>710900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>684700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,31 +4888,31 @@
         <v>2700</v>
       </c>
       <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3100</v>
       </c>
       <c r="I62" s="3">
         <v>3100</v>
       </c>
       <c r="J62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3200</v>
       </c>
       <c r="L62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M62" s="3">
         <v>4500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3200</v>
       </c>
       <c r="N62" s="3">
         <v>3200</v>
@@ -4787,37 +4933,40 @@
         <v>3200</v>
       </c>
       <c r="T62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="U62" s="3">
         <v>3100</v>
       </c>
       <c r="V62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W62" s="3">
         <v>1700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>1000</v>
       </c>
       <c r="AB62" s="3">
         <v>1000</v>
       </c>
       <c r="AC62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>480200</v>
+      </c>
+      <c r="E66" s="3">
         <v>523800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>559200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>568200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>583000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>584000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>595200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>610600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>620400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>629300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>646800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>651800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>669000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>675500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>938800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>735000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>735100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>737000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>736900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>736000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>734700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>736000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>738700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>738400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>731900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>738800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5366,7 +5534,7 @@
         <v>126800</v>
       </c>
       <c r="I70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="J70" s="3">
         <v>126700</v>
@@ -5399,10 +5567,10 @@
         <v>126700</v>
       </c>
       <c r="T70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="U70" s="3">
         <v>127100</v>
-      </c>
-      <c r="U70" s="3">
-        <v>73200</v>
       </c>
       <c r="V70" s="3">
         <v>73200</v>
@@ -5411,7 +5579,7 @@
         <v>73200</v>
       </c>
       <c r="X70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="Y70" s="3">
         <v>73300</v>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,8 +5682,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>303800</v>
+      </c>
+      <c r="E76" s="3">
         <v>297100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>288400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>283900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>275700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>254700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>240700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>232300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>224000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>209800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>202000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>194600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>187000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>184400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>192000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>196200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>199400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>211800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>223000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>233200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>245100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>256100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>268900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>290700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>294500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,101 +6198,107 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>9600</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
@@ -6114,12 +6309,12 @@
       <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3">
         <v>16900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
@@ -6147,41 +6342,44 @@
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>7900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,61 +6409,62 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="E83" s="3">
         <v>8000</v>
       </c>
       <c r="F83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8000</v>
       </c>
       <c r="I83" s="3">
         <v>8000</v>
       </c>
       <c r="J83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8000</v>
       </c>
       <c r="M83" s="3">
         <v>8000</v>
       </c>
       <c r="N83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="O83" s="3">
         <v>7900</v>
       </c>
       <c r="P83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7600</v>
       </c>
       <c r="R83" s="3">
         <v>7600</v>
       </c>
       <c r="S83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T83" s="3">
         <v>7500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7600</v>
       </c>
       <c r="U83" s="3">
         <v>7600</v>
@@ -6274,10 +6473,10 @@
         <v>7600</v>
       </c>
       <c r="W83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X83" s="3">
         <v>7500</v>
-      </c>
-      <c r="X83" s="3">
-        <v>7600</v>
       </c>
       <c r="Y83" s="3">
         <v>7600</v>
@@ -6286,16 +6485,19 @@
         <v>7600</v>
       </c>
       <c r="AA83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AB83" s="3">
         <v>7500</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>7600</v>
       </c>
       <c r="AC83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E89" s="3">
         <v>13400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>19800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>23300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,34 +7043,35 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -6858,8 +7079,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6873,17 +7094,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -6897,17 +7118,20 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,26 +7299,29 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7101,8 +7331,8 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -7132,11 +7362,11 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -7153,10 +7383,13 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7228,19 +7462,19 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-2900</v>
       </c>
       <c r="R96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S96" s="3">
         <v>-5100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-10600</v>
       </c>
       <c r="U96" s="3">
         <v>-10600</v>
@@ -7249,7 +7483,7 @@
         <v>-10600</v>
       </c>
       <c r="W96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="X96" s="3">
         <v>-16700</v>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,82 +7761,85 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-15300</v>
       </c>
       <c r="I100" s="3">
         <v>-15300</v>
       </c>
       <c r="J100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-13100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-14900</v>
       </c>
       <c r="O100" s="3">
         <v>-14900</v>
       </c>
       <c r="P100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-264900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>191200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>41400</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-11800</v>
       </c>
       <c r="V100" s="3">
         <v>-11800</v>
       </c>
       <c r="W100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="X100" s="3">
         <v>-17900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>12000</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>-24800</v>
       </c>
       <c r="AB100" s="3">
         <v>-24800</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-251400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>204700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>23400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DLNG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>DLNG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E8" s="3">
         <v>37300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>34500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>34300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>34400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>31000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>31300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>30900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>33900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>34500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>33500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>32000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>39100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>41400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E9" s="3">
         <v>8000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8200</v>
       </c>
       <c r="H9" s="3">
         <v>8200</v>
       </c>
       <c r="I9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>7500</v>
       </c>
       <c r="T9" s="3">
         <v>7500</v>
       </c>
       <c r="U9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V9" s="3">
         <v>7000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>7000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>7400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>7500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>7400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E10" s="3">
         <v>29300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>22000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>27000</v>
       </c>
       <c r="J10" s="3">
         <v>27000</v>
       </c>
       <c r="K10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="L10" s="3">
         <v>25600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>23900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>26900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>27100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>26600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>23200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>31600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>34000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,20 +1262,23 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1274,8 +1294,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1331,64 +1351,67 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="3">
         <v>7900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8000</v>
       </c>
       <c r="F15" s="3">
         <v>8000</v>
       </c>
       <c r="G15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H15" s="3">
         <v>7900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8000</v>
       </c>
       <c r="J15" s="3">
         <v>8000</v>
       </c>
       <c r="K15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L15" s="3">
         <v>7900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>8000</v>
       </c>
       <c r="N15" s="3">
         <v>8000</v>
       </c>
       <c r="O15" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="P15" s="3">
         <v>7900</v>
       </c>
       <c r="Q15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R15" s="3">
         <v>8000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>7600</v>
       </c>
       <c r="S15" s="3">
         <v>7600</v>
       </c>
       <c r="T15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U15" s="3">
         <v>7500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>7600</v>
       </c>
       <c r="V15" s="3">
         <v>7600</v>
@@ -1397,10 +1420,10 @@
         <v>7600</v>
       </c>
       <c r="X15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Y15" s="3">
         <v>7500</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>7600</v>
       </c>
       <c r="Z15" s="3">
         <v>7600</v>
@@ -1409,16 +1432,19 @@
         <v>7600</v>
       </c>
       <c r="AB15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AC15" s="3">
         <v>7500</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>7600</v>
       </c>
       <c r="AD15" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,17 +1472,18 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E17" s="3">
         <v>18100</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1466,12 +1493,12 @@
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
         <v>18900</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1499,50 +1526,53 @@
       <c r="S17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>17000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>23200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>17100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E18" s="3">
         <v>19200</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1552,12 +1582,12 @@
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>16800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1585,41 +1615,44 @@
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>14400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>11900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>17500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>15900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>21900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>24300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,17 +1683,18 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1670,12 +1704,12 @@
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1703,50 +1737,53 @@
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E21" s="3">
         <v>17500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1756,12 +1793,12 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>24900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1789,41 +1826,44 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>22400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>19700</v>
       </c>
       <c r="V21" s="3">
         <v>19700</v>
       </c>
       <c r="W21" s="3">
+        <v>19700</v>
+      </c>
+      <c r="X21" s="3">
         <v>20400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>24300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>23400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>15100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>29200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>32000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1875,50 +1915,53 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>13000</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>13000</v>
       </c>
       <c r="V22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="W22" s="3">
         <v>12700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>11800</v>
       </c>
       <c r="Z22" s="3">
         <v>11800</v>
       </c>
       <c r="AA22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="AB22" s="3">
         <v>12700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>8800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>8900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E23" s="3">
         <v>9600</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1928,12 +1971,12 @@
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1961,41 +2004,44 @@
       <c r="S23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>12900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>15500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,17 +2215,20 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3">
         <v>9600</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2186,12 +2238,12 @@
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2219,50 +2271,53 @@
       <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>12900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>15500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3">
         <v>9600</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2272,12 +2327,12 @@
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3">
         <v>16900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2305,41 +2360,44 @@
       <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>7900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,17 +2749,20 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>9600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2702,12 +2772,12 @@
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,50 +2805,53 @@
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3">
         <v>9600</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2788,12 +2861,12 @@
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3">
         <v>16900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2821,41 +2894,44 @@
       <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>10000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>7900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,17 +3016,20 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3">
         <v>9600</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2960,12 +3039,12 @@
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3">
         <v>16900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
@@ -2993,132 +3072,138 @@
       <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>10000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>7900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,85 +3277,88 @@
         <v>52900</v>
       </c>
       <c r="E41" s="3">
+        <v>52900</v>
+      </c>
+      <c r="F41" s="3">
         <v>48600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>91300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>86800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>112900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>112300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>109900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>59500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>57800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>61400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>67500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>70500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>74300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>50900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>57600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>59100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3362,85 +3455,88 @@
         <v>1400</v>
       </c>
       <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>22500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1400</v>
       </c>
       <c r="L43" s="3">
         <v>1400</v>
       </c>
       <c r="M43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>400</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>1000</v>
       </c>
       <c r="AD43" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3459,246 +3555,255 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>800</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="3">
         <v>800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E45" s="3">
         <v>32400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>302000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>32400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E46" s="3">
         <v>86600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>139900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>138500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>138600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>51200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>99900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>91900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>69300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>75100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>322100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>118200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>114800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>113000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>63500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>65700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>66100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>70400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>74700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>77700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>83700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>60200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,94 +3888,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>809300</v>
+      </c>
+      <c r="E48" s="3">
         <v>817200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>825100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>833100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>838800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>845400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>853200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>861200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>869200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>877100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>884900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>892900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>908800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>916700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>924700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>932300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>939900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>947400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>955000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>962700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>970200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>977300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>984900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>992600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1000100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1007600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1015300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>48400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1500</v>
       </c>
       <c r="H52" s="3">
         <v>1500</v>
       </c>
       <c r="I52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J52" s="3">
         <v>61100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>3100</v>
       </c>
       <c r="S52" s="3">
         <v>3100</v>
       </c>
       <c r="T52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>12100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>38900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>919900</v>
+      </c>
+      <c r="E54" s="3">
         <v>910800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>947700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>974400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>978900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>985500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>965500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>962700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>969600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>971200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>965800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>975500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>973100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>986800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>989200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1249900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1053700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1058000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1063400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1021900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1032200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1041200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1054300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1068100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1080500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1095900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1106700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1117900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4469,74 +4600,77 @@
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>4400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>5500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>5000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4555,47 +4689,47 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>45900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>45700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
         <v>45500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3">
         <v>252000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>251800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2700</v>
       </c>
       <c r="W58" s="3">
         <v>2700</v>
@@ -4607,315 +4741,327 @@
         <v>2700</v>
       </c>
       <c r="Z58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="AA58" s="3">
         <v>2600</v>
       </c>
       <c r="AB58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AC58" s="3">
         <v>3500</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>31700</v>
       </c>
       <c r="AD58" s="3">
         <v>31700</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>31700</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E59" s="3">
         <v>23200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>15600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>12400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>18300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E60" s="3">
         <v>23200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>70300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>29500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>271500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>272700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>25400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>25000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>20000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>53100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>55400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>442800</v>
+      </c>
+      <c r="E61" s="3">
         <v>454400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>450800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>527500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>539000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>550500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>516000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>573400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>584800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>596300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>562000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>619100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>630400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>641800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>607700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>914400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>712000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>460400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>461100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>710500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>710900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>711300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>711700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>712100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>712300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>710900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>684700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>692400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
         <v>2700</v>
       </c>
       <c r="F62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3100</v>
       </c>
       <c r="J62" s="3">
         <v>3100</v>
       </c>
       <c r="K62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="L62" s="3">
         <v>3200</v>
       </c>
       <c r="M62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N62" s="3">
         <v>4500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3200</v>
       </c>
       <c r="O62" s="3">
         <v>3200</v>
@@ -4936,37 +5082,40 @@
         <v>3200</v>
       </c>
       <c r="U62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="V62" s="3">
         <v>3100</v>
       </c>
       <c r="W62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X62" s="3">
         <v>1700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>1000</v>
       </c>
       <c r="AC62" s="3">
         <v>1000</v>
       </c>
       <c r="AD62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE62" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E66" s="3">
         <v>480200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>523800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>559200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>568200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>583000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>584000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>595200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>610600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>620400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>629300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>646800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>651800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>669000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>675500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>938800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>735000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>735100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>737000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>736900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>736000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>734700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>736000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>738700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>738400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>731900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>738800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>748800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5537,7 +5705,7 @@
         <v>126800</v>
       </c>
       <c r="J70" s="3">
-        <v>126700</v>
+        <v>126800</v>
       </c>
       <c r="K70" s="3">
         <v>126700</v>
@@ -5570,10 +5738,10 @@
         <v>126700</v>
       </c>
       <c r="U70" s="3">
+        <v>126700</v>
+      </c>
+      <c r="V70" s="3">
         <v>127100</v>
-      </c>
-      <c r="V70" s="3">
-        <v>73200</v>
       </c>
       <c r="W70" s="3">
         <v>73200</v>
@@ -5582,7 +5750,7 @@
         <v>73200</v>
       </c>
       <c r="Y70" s="3">
-        <v>73300</v>
+        <v>73200</v>
       </c>
       <c r="Z70" s="3">
         <v>73300</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>73300</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315400</v>
+      </c>
+      <c r="E76" s="3">
         <v>303800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>297100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>288400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>283900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>275700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>254700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>240700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>232300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>224000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>209800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>202000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>194600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>191100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>187000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>184400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>192000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>196200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>199400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>211800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>223000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>233200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>245100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>256100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>268900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>290700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>294500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>295800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,108 +6390,114 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3">
         <v>9600</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>8</v>
       </c>
@@ -6312,12 +6507,12 @@
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3">
         <v>16900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
@@ -6345,41 +6540,44 @@
       <c r="S81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>10000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>7900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,64 +6608,65 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8000</v>
       </c>
       <c r="F83" s="3">
         <v>8000</v>
       </c>
       <c r="G83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8000</v>
       </c>
       <c r="J83" s="3">
         <v>8000</v>
       </c>
       <c r="K83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8000</v>
       </c>
       <c r="N83" s="3">
         <v>8000</v>
       </c>
       <c r="O83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="P83" s="3">
         <v>7900</v>
       </c>
       <c r="Q83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R83" s="3">
         <v>8000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7600</v>
       </c>
       <c r="S83" s="3">
         <v>7600</v>
       </c>
       <c r="T83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U83" s="3">
         <v>7500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>7600</v>
       </c>
       <c r="V83" s="3">
         <v>7600</v>
@@ -6476,10 +6675,10 @@
         <v>7600</v>
       </c>
       <c r="X83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>7500</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>7600</v>
       </c>
       <c r="Z83" s="3">
         <v>7600</v>
@@ -6488,16 +6687,19 @@
         <v>7600</v>
       </c>
       <c r="AB83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AC83" s="3">
         <v>7500</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>7600</v>
       </c>
       <c r="AD83" s="3">
         <v>7600</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E89" s="3">
         <v>13700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>15000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>18200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>23300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,37 +7264,38 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -7082,8 +7303,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7097,17 +7318,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
@@ -7121,17 +7342,20 @@
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,29 +7529,32 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
@@ -7334,8 +7564,8 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7365,11 +7595,11 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7386,10 +7616,13 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7465,19 +7699,19 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-2900</v>
       </c>
       <c r="S96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T96" s="3">
         <v>-5100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-5500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-10600</v>
       </c>
       <c r="V96" s="3">
         <v>-10600</v>
@@ -7486,7 +7720,7 @@
         <v>-10600</v>
       </c>
       <c r="X96" s="3">
-        <v>-16700</v>
+        <v>-10600</v>
       </c>
       <c r="Y96" s="3">
         <v>-16700</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-16700</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-16700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,85 +8007,88 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-15300</v>
       </c>
       <c r="J100" s="3">
         <v>-15300</v>
       </c>
       <c r="K100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="L100" s="3">
         <v>-13100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14800</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-14900</v>
       </c>
       <c r="P100" s="3">
         <v>-14900</v>
       </c>
       <c r="Q100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="R100" s="3">
         <v>-264900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>191200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>41400</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-11800</v>
       </c>
       <c r="W100" s="3">
         <v>-11800</v>
       </c>
       <c r="X100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>12000</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>-24800</v>
       </c>
       <c r="AC100" s="3">
         <v>-24800</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>-24800</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-24800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-251400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>204700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>50400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>23400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1800</v>
       </c>
     </row>
